--- a/Volkswagen AG Valuation.xlsx
+++ b/Volkswagen AG Valuation.xlsx
@@ -1,17 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DATA SCIENCE JOBS\Stock Analysis with Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB9055AE-F38E-40E1-9D18-0CD28AF36143}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7080" windowHeight="6225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="TO DO" sheetId="1" r:id="rId4"/>
+    <sheet name="TO DO" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="128">
   <si>
     <t>Volkswagen AG 2009</t>
   </si>
@@ -176,15 +186,6 @@
   </si>
   <si>
     <t>EPS (2010 forecast)</t>
-  </si>
-  <si>
-    <t>Comp. Firm 1</t>
-  </si>
-  <si>
-    <t>Comp. Firm 2</t>
-  </si>
-  <si>
-    <t>…</t>
   </si>
   <si>
     <t>… etc.</t>
@@ -279,26 +280,29 @@
   <si>
     <r>
       <rPr>
+        <i/>
+        <sz val="9"/>
         <rFont val="Verdana"/>
-        <i/>
-        <sz val="9.0"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Price per share using </t>
     </r>
     <r>
       <rPr>
+        <i/>
+        <u/>
+        <sz val="9"/>
         <rFont val="Verdana"/>
-        <i/>
-        <sz val="9.0"/>
-        <u/>
+        <family val="2"/>
       </rPr>
       <t>forward-looking</t>
     </r>
     <r>
       <rPr>
+        <i/>
+        <sz val="9"/>
         <rFont val="Verdana"/>
-        <i/>
-        <sz val="9.0"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> multiples:</t>
     </r>
@@ -320,90 +324,219 @@
   </si>
   <si>
     <t>Using median P/E</t>
+  </si>
+  <si>
+    <t>Means that the stock is overvalued,because the industry paid $7.50 per dollar earned and VW almost paid 2x</t>
+  </si>
+  <si>
+    <t>7.6x</t>
+  </si>
+  <si>
+    <t>11.1x</t>
+  </si>
+  <si>
+    <t>10.8x</t>
+  </si>
+  <si>
+    <t>7.7x</t>
+  </si>
+  <si>
+    <t>10.0x</t>
+  </si>
+  <si>
+    <t>9.5x</t>
+  </si>
+  <si>
+    <t>10.5x</t>
+  </si>
+  <si>
+    <t>15.0x</t>
+  </si>
+  <si>
+    <t>20.8x</t>
+  </si>
+  <si>
+    <t>17.3x</t>
+  </si>
+  <si>
+    <t>10.6x</t>
+  </si>
+  <si>
+    <t>9.8x</t>
+  </si>
+  <si>
+    <t>4.8x</t>
+  </si>
+  <si>
+    <t>12.3x</t>
+  </si>
+  <si>
+    <t>9.3x</t>
+  </si>
+  <si>
+    <t>7.4x</t>
+  </si>
+  <si>
+    <t>14.9x</t>
+  </si>
+  <si>
+    <t>8.5x</t>
+  </si>
+  <si>
+    <t>9.1x</t>
+  </si>
+  <si>
+    <t>3.2x</t>
+  </si>
+  <si>
+    <t>3.5x</t>
+  </si>
+  <si>
+    <t>8,15</t>
+  </si>
+  <si>
+    <t>1.8x</t>
+  </si>
+  <si>
+    <t>15.2x</t>
+  </si>
+  <si>
+    <t>45.4x</t>
+  </si>
+  <si>
+    <t>32.7x</t>
+  </si>
+  <si>
+    <t>8.9x</t>
+  </si>
+  <si>
+    <t>16.3x</t>
+  </si>
+  <si>
+    <t>5.4x</t>
+  </si>
+  <si>
+    <t>1.6x</t>
+  </si>
+  <si>
+    <t>5.8x</t>
+  </si>
+  <si>
+    <t>44.3x</t>
+  </si>
+  <si>
+    <t>8.3x</t>
+  </si>
+  <si>
+    <t>15.4x</t>
+  </si>
+  <si>
+    <t>0.4x</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0\x"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Verdana"/>
     </font>
     <font>
       <b/>
-      <sz val="16.0"/>
+      <sz val="16"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <i/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="8.0"/>
+      <sz val="8"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <i/>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <u/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <i/>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <u/>
+      <sz val="9"/>
+      <name val="Verdana"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -411,7 +544,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -432,27 +565,19 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="52">
-    <border/>
+  <borders count="48">
     <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color rgb="FF000000"/>
       </right>
       <top style="medium">
@@ -461,6 +586,22 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -475,6 +616,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -489,6 +631,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -503,6 +646,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -515,6 +659,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -529,17 +674,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -552,28 +687,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -583,14 +697,58 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -602,6 +760,8 @@
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -613,6 +773,8 @@
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -624,6 +786,8 @@
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -636,6 +800,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -650,28 +815,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -682,6 +826,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -690,25 +835,22 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -721,6 +863,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -735,6 +878,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -749,6 +893,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -761,6 +906,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -775,6 +921,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -789,6 +936,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -797,9 +945,11 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -808,31 +958,24 @@
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -844,11 +987,17 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -857,24 +1006,34 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
@@ -884,14 +1043,18 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -906,25 +1069,31 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -936,6 +1105,8 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -947,35 +1118,50 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -990,460 +1176,470 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="171">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+  <cellXfs count="158">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="6" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="6" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="6" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="5" fillId="2" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="6" fillId="2" fontId="8" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="8" fillId="0" fontId="8" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="7" fillId="2" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="9" fillId="2" fontId="8" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="8" fillId="0" fontId="8" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="8" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="9" fillId="2" fontId="8" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="7" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="9" fillId="2" fontId="8" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="8" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="7" fillId="2" fontId="8" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="8" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="8" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="11" fillId="2" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="12" fillId="2" fontId="8" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="10" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="13" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="8" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="8" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="8" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="8" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="13" fillId="0" fontId="5" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="7" fillId="3" fontId="13" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="14" fillId="0" fontId="6" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="2" fontId="13" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="15" fillId="0" fontId="6" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="16" fillId="0" fontId="6" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="17" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="18" fillId="0" fontId="8" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="19" fillId="0" fontId="8" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="20" fillId="0" fontId="8" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="21" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="22" fillId="0" fontId="8" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="23" fillId="0" fontId="8" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="24" fillId="0" fontId="8" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="25" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="4" fontId="8" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="26" fillId="0" fontId="8" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="8" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="27" fillId="0" fontId="8" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="28" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="4" fontId="8" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="29" fillId="0" fontId="6" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="30" fillId="0" fontId="6" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="29" fillId="0" fontId="6" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="30" fillId="0" fontId="6" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="21" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="22" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="31" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="32" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="25" fillId="4" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="26" fillId="0" fontId="8" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="33" fillId="0" fontId="8" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="34" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="29" fillId="0" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="30" fillId="0" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="13" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="35" fillId="0" fontId="6" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="35" fillId="0" fontId="7" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="36" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="7" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="37" fillId="0" fontId="7" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="38" fillId="0" fontId="7" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="37" fillId="0" fontId="6" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="31" fillId="0" fontId="6" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="31" fillId="0" fontId="7" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="23" fillId="0" fontId="7" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="39" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="40" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="35" fillId="0" fontId="13" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="37" fillId="0" fontId="13" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="37" fillId="0" fontId="14" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="31" fillId="0" fontId="14" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="31" fillId="0" fontId="13" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="13" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="13" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="41" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="41" fillId="0" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="41" fillId="0" fontId="6" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="41" fillId="0" fontId="13" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="41" fillId="0" fontId="6" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="7" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="41" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="13" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="14" fillId="0" fontId="6" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="15" fillId="0" fontId="6" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="16" fillId="0" fontId="6" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="17" fillId="4" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="18" fillId="0" fontId="8" numFmtId="4" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="5" fillId="0" fontId="8" numFmtId="4" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="42" fillId="0" fontId="8" numFmtId="4" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="21" fillId="4" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="22" fillId="0" fontId="8" numFmtId="4" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="31" fillId="0" fontId="8" numFmtId="4" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="32" fillId="0" fontId="8" numFmtId="4" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="43" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="26" fillId="0" fontId="6" numFmtId="2" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="7" fillId="0" fontId="6" numFmtId="2" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="27" fillId="0" fontId="6" numFmtId="2" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="43" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="26" fillId="0" fontId="8" numFmtId="4" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="7" fillId="0" fontId="8" numFmtId="4" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="27" fillId="0" fontId="8" numFmtId="4" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="44" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="45" fillId="0" fontId="8" numFmtId="165" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="35" fillId="0" fontId="8" numFmtId="165" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="46" fillId="0" fontId="8" numFmtId="165" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="39" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="8" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="8" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="8" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="8" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="8" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="8" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="8" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="9" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="3" fillId="0" fontId="9" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="4" fillId="0" fontId="9" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="47" fillId="0" fontId="7" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="36" fillId="0" fontId="7" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="48" fillId="0" fontId="7" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="49" fillId="0" fontId="7" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="13" fillId="0" fontId="7" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="47" fillId="0" fontId="6" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="47" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="36" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="2" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="48" fillId="0" fontId="6" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="48" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="38" fillId="0" fontId="2" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="49" fillId="0" fontId="6" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="49" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="13" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="23" fillId="0" fontId="2" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="7" fillId="3" fontId="13" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="14" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="15" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="16" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="6" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="13" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="50" fillId="0" fontId="7" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="40" fillId="0" fontId="7" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="51" fillId="0" fontId="7" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="2" fillId="3" fontId="13" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="3" fillId="3" fontId="13" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="4" fillId="3" fontId="13" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5795721C-F0B1-45D8-9A6C-DB51375C8349}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="5399999">
+          <a:off x="109537" y="385764"/>
+          <a:ext cx="9286875" cy="8515350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1597,7 +1793,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln cap="flat" cmpd="sng" w="9525" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -1606,13 +1802,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln cap="flat" cmpd="sng" w="25400" algn="ctr">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln cap="flat" cmpd="sng" w="38100" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1622,7 +1818,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" rotWithShape="0" dir="5400000" dist="20000">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -1631,7 +1827,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" rotWithShape="0" dir="5400000" dist="23000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1640,7 +1836,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" rotWithShape="0" dir="5400000" dist="23000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1650,12 +1846,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -1686,7 +1882,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -1705,7 +1901,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -1756,28 +1952,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R136"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
+      <selection activeCell="G125" sqref="G125"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="16.83" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="16.875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="23.33"/>
-    <col customWidth="1" min="2" max="2" width="17.17"/>
-    <col customWidth="1" min="3" max="3" width="12.33"/>
-    <col customWidth="1" min="4" max="4" width="10.83"/>
-    <col customWidth="1" min="5" max="5" width="10.17"/>
-    <col customWidth="1" min="6" max="6" width="9.33"/>
-    <col customWidth="1" min="7" max="7" width="9.0"/>
-    <col customWidth="1" min="8" max="11" width="11.0"/>
-    <col customWidth="1" min="12" max="12" width="10.17"/>
-    <col customWidth="1" min="13" max="18" width="10.67"/>
+    <col min="1" max="1" width="23.375" customWidth="1"/>
+    <col min="2" max="2" width="17.125" customWidth="1"/>
+    <col min="3" max="3" width="12.375" customWidth="1"/>
+    <col min="4" max="4" width="10.875" customWidth="1"/>
+    <col min="5" max="5" width="10.125" customWidth="1"/>
+    <col min="6" max="6" width="9.375" customWidth="1"/>
+    <col min="7" max="7" width="9" customWidth="1"/>
+    <col min="8" max="11" width="11" customWidth="1"/>
+    <col min="12" max="12" width="10.125" customWidth="1"/>
+    <col min="13" max="18" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.75" customHeight="1">
+    <row r="1" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1799,7 +1995,7 @@
       <c r="Q1" s="3"/>
       <c r="R1" s="3"/>
     </row>
-    <row r="2" ht="10.5" customHeight="1">
+    <row r="2" spans="1:18" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1819,7 +2015,7 @@
       <c r="Q2" s="3"/>
       <c r="R2" s="3"/>
     </row>
-    <row r="3" ht="12.75" customHeight="1">
+    <row r="3" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
@@ -1841,7 +2037,7 @@
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
     </row>
-    <row r="4" ht="10.5" customHeight="1">
+    <row r="4" spans="1:18" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -1861,7 +2057,7 @@
       <c r="Q4" s="3"/>
       <c r="R4" s="3"/>
     </row>
-    <row r="5" ht="12.75" customHeight="1">
+    <row r="5" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>2</v>
       </c>
@@ -1905,7 +2101,7 @@
       <c r="Q5" s="11"/>
       <c r="R5" s="11"/>
     </row>
-    <row r="6" ht="12.75" customHeight="1">
+    <row r="6" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
         <v>14</v>
       </c>
@@ -1919,28 +2115,28 @@
         <v>24.601881000000002</v>
       </c>
       <c r="E6" s="13">
-        <v>86.2815268</v>
+        <v>86.281526799999995</v>
       </c>
       <c r="F6" s="13">
-        <v>73.95928</v>
+        <v>73.959280000000007</v>
       </c>
       <c r="G6" s="13">
-        <v>54.00291428</v>
+        <v>54.002914279999999</v>
       </c>
       <c r="H6" s="13">
-        <v>26.0105101</v>
+        <v>26.010510100000001</v>
       </c>
       <c r="I6" s="13">
-        <v>22.4200492</v>
+        <v>22.420049200000001</v>
       </c>
       <c r="J6" s="13">
-        <v>30.2360396</v>
+        <v>30.236039600000002</v>
       </c>
       <c r="K6" s="13">
         <v>63.117803269999996</v>
       </c>
       <c r="L6" s="13">
-        <v>17.556322</v>
+        <v>17.556322000000002</v>
       </c>
       <c r="M6" s="11"/>
       <c r="N6" s="11"/>
@@ -1949,7 +2145,7 @@
       <c r="Q6" s="11"/>
       <c r="R6" s="11"/>
     </row>
-    <row r="7" ht="12.75" customHeight="1">
+    <row r="7" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
         <v>15</v>
       </c>
@@ -1957,10 +2153,10 @@
         <v>69.38</v>
       </c>
       <c r="C7" s="15">
-        <v>96.896549</v>
+        <v>96.896548999999993</v>
       </c>
       <c r="D7" s="15">
-        <v>33.479884</v>
+        <v>33.479883999999998</v>
       </c>
       <c r="E7" s="15">
         <v>111.279252</v>
@@ -1969,19 +2165,19 @@
         <v>58.637</v>
       </c>
       <c r="G7" s="15">
-        <v>34.876307</v>
+        <v>34.876306999999997</v>
       </c>
       <c r="H7" s="15">
         <v>27.93</v>
       </c>
       <c r="I7" s="15">
-        <v>21.379</v>
+        <v>21.379000000000001</v>
       </c>
       <c r="J7" s="15">
         <v>29.14</v>
       </c>
       <c r="K7" s="15">
-        <v>59.525</v>
+        <v>59.524999999999999</v>
       </c>
       <c r="L7" s="15">
         <v>18.165799</v>
@@ -1993,39 +2189,39 @@
       <c r="Q7" s="11"/>
       <c r="R7" s="11"/>
     </row>
-    <row r="8" ht="12.75" customHeight="1">
+    <row r="8" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
         <v>16</v>
       </c>
       <c r="B8" s="17">
-        <v>35.011</v>
+        <v>35.011000000000003</v>
       </c>
       <c r="C8" s="17">
-        <v>94.193971</v>
+        <v>94.193971000000005</v>
       </c>
       <c r="D8" s="17">
-        <v>-61.977352</v>
+        <v>-61.977352000000003</v>
       </c>
       <c r="E8" s="17">
         <v>-12.453165</v>
       </c>
       <c r="F8" s="17">
-        <v>31.216</v>
+        <v>31.216000000000001</v>
       </c>
       <c r="G8" s="17">
-        <v>36.062293</v>
+        <v>36.062292999999997</v>
       </c>
       <c r="H8" s="17">
-        <v>13.143</v>
+        <v>13.143000000000001</v>
       </c>
       <c r="I8" s="17">
-        <v>10.354</v>
+        <v>10.353999999999999</v>
       </c>
       <c r="J8" s="17">
         <v>18.959</v>
       </c>
       <c r="K8" s="17">
-        <v>20.265</v>
+        <v>20.265000000000001</v>
       </c>
       <c r="L8" s="17">
         <v>15.066283</v>
@@ -2037,7 +2233,7 @@
       <c r="Q8" s="11"/>
       <c r="R8" s="11"/>
     </row>
-    <row r="9" ht="12.75" customHeight="1">
+    <row r="9" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>17</v>
       </c>
@@ -2045,34 +2241,34 @@
         <v>77.62</v>
       </c>
       <c r="C9" s="15">
-        <v>73.24010725</v>
+        <v>73.240107249999994</v>
       </c>
       <c r="D9" s="15">
-        <v>1.332858</v>
+        <v>1.3328580000000001</v>
       </c>
       <c r="E9" s="15">
-        <v>3.7428928</v>
+        <v>3.7428927999999999</v>
       </c>
       <c r="F9" s="15">
-        <v>25.28328</v>
+        <v>25.283280000000001</v>
       </c>
       <c r="G9" s="15">
         <v>27.46633628</v>
       </c>
       <c r="H9" s="15">
-        <v>2.7655101</v>
+        <v>2.7655101000000002</v>
       </c>
       <c r="I9" s="15">
-        <v>5.6910492</v>
+        <v>5.6910492000000001</v>
       </c>
       <c r="J9" s="15">
-        <v>4.7590396</v>
+        <v>4.7590396000000004</v>
       </c>
       <c r="K9" s="15">
         <v>14.352803269999999</v>
       </c>
       <c r="L9" s="15">
-        <v>9.76325</v>
+        <v>9.7632499999999993</v>
       </c>
       <c r="M9" s="18"/>
       <c r="N9" s="18"/>
@@ -2081,12 +2277,12 @@
       <c r="Q9" s="18"/>
       <c r="R9" s="18"/>
     </row>
-    <row r="10" ht="12.75" customHeight="1">
+    <row r="10" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="17">
-        <v>9.474</v>
+        <v>9.4740000000000002</v>
       </c>
       <c r="C10" s="17">
         <v>12.923793</v>
@@ -2095,28 +2291,28 @@
         <v>10.109429</v>
       </c>
       <c r="E10" s="17">
-        <v>15.861581</v>
+        <v>15.861580999999999</v>
       </c>
       <c r="F10" s="17">
-        <v>6.912</v>
+        <v>6.9119999999999999</v>
       </c>
       <c r="G10" s="17">
-        <v>8.339728</v>
+        <v>8.3397279999999991</v>
       </c>
       <c r="H10" s="17">
-        <v>2.095</v>
+        <v>2.0950000000000002</v>
       </c>
       <c r="I10" s="17">
-        <v>3.462</v>
+        <v>3.4620000000000002</v>
       </c>
       <c r="J10" s="17">
-        <v>2.05</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="K10" s="17">
-        <v>7.454</v>
+        <v>7.4539999999999997</v>
       </c>
       <c r="L10" s="17">
-        <v>6.989501</v>
+        <v>6.9895009999999997</v>
       </c>
       <c r="M10" s="11"/>
       <c r="N10" s="11"/>
@@ -2125,42 +2321,42 @@
       <c r="Q10" s="11"/>
       <c r="R10" s="11"/>
     </row>
-    <row r="11" ht="12.75" customHeight="1">
+    <row r="11" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
         <v>19</v>
       </c>
       <c r="B11" s="15">
-        <v>56.136</v>
+        <v>56.136000000000003</v>
       </c>
       <c r="C11" s="15">
-        <v>78.600367</v>
+        <v>78.600367000000006</v>
       </c>
       <c r="D11" s="15">
-        <v>23.269023</v>
+        <v>23.269023000000001</v>
       </c>
       <c r="E11" s="15">
-        <v>82.538634</v>
+        <v>82.538634000000002</v>
       </c>
       <c r="F11" s="15">
-        <v>48.676</v>
+        <v>48.676000000000002</v>
       </c>
       <c r="G11" s="15">
-        <v>26.536578</v>
+        <v>26.536577999999999</v>
       </c>
       <c r="H11" s="15">
-        <v>23.245</v>
+        <v>23.245000000000001</v>
       </c>
       <c r="I11" s="15">
-        <v>16.729</v>
+        <v>16.728999999999999</v>
       </c>
       <c r="J11" s="15">
         <v>25.477</v>
       </c>
       <c r="K11" s="15">
-        <v>48.765</v>
+        <v>48.765000000000001</v>
       </c>
       <c r="L11" s="15">
-        <v>7.793072</v>
+        <v>7.7930720000000004</v>
       </c>
       <c r="M11" s="11"/>
       <c r="N11" s="11"/>
@@ -2169,15 +2365,15 @@
       <c r="Q11" s="11"/>
       <c r="R11" s="11"/>
     </row>
-    <row r="12" ht="12.75" customHeight="1">
+    <row r="12" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
         <v>20</v>
       </c>
       <c r="B12" s="17">
-        <v>113.808</v>
+        <v>113.80800000000001</v>
       </c>
       <c r="C12" s="17">
-        <v>208.62566</v>
+        <v>208.62566000000001</v>
       </c>
       <c r="D12" s="17">
         <v>107.172319</v>
@@ -2186,25 +2382,25 @@
         <v>105.228557</v>
       </c>
       <c r="F12" s="17">
-        <v>95.873</v>
+        <v>95.873000000000005</v>
       </c>
       <c r="G12" s="17">
-        <v>95.251866</v>
+        <v>95.251866000000007</v>
       </c>
       <c r="H12" s="17">
-        <v>54.356</v>
+        <v>54.356000000000002</v>
       </c>
       <c r="I12" s="17">
         <v>59.38</v>
       </c>
       <c r="J12" s="17">
-        <v>37.791</v>
+        <v>37.790999999999997</v>
       </c>
       <c r="K12" s="17">
-        <v>53.197</v>
+        <v>53.197000000000003</v>
       </c>
       <c r="L12" s="17">
-        <v>7.466403</v>
+        <v>7.4664029999999997</v>
       </c>
       <c r="M12" s="11"/>
       <c r="N12" s="11"/>
@@ -2213,7 +2409,7 @@
       <c r="Q12" s="11"/>
       <c r="R12" s="11"/>
     </row>
-    <row r="13" ht="12.75" customHeight="1">
+    <row r="13" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
         <v>21</v>
       </c>
@@ -2221,34 +2417,34 @@
         <v>15.705</v>
       </c>
       <c r="C13" s="15">
-        <v>31.540525</v>
+        <v>31.540524999999999</v>
       </c>
       <c r="D13" s="15">
-        <v>-7.802381</v>
+        <v>-7.8023809999999996</v>
       </c>
       <c r="E13" s="15">
-        <v>5.783805</v>
+        <v>5.7838050000000001</v>
       </c>
       <c r="F13" s="15">
         <v>10.051</v>
       </c>
       <c r="G13" s="15">
-        <v>11.355222</v>
+        <v>11.355221999999999</v>
       </c>
       <c r="H13" s="15">
-        <v>2.849</v>
+        <v>2.8490000000000002</v>
       </c>
       <c r="I13" s="15">
-        <v>6.409</v>
+        <v>6.4089999999999998</v>
       </c>
       <c r="J13" s="15">
         <v>4.077</v>
       </c>
       <c r="K13" s="15">
-        <v>8.154</v>
+        <v>8.1539999999999999</v>
       </c>
       <c r="L13" s="15">
-        <v>9.925799</v>
+        <v>9.9257989999999996</v>
       </c>
       <c r="M13" s="11"/>
       <c r="N13" s="11"/>
@@ -2257,39 +2453,39 @@
       <c r="Q13" s="11"/>
       <c r="R13" s="11"/>
     </row>
-    <row r="14" ht="12.75" customHeight="1">
+    <row r="14" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
         <v>22</v>
       </c>
       <c r="B14" s="17">
-        <v>4.753</v>
+        <v>4.7530000000000001</v>
       </c>
       <c r="C14" s="17">
         <v>13.632712</v>
       </c>
       <c r="D14" s="17">
-        <v>-22.200027</v>
+        <v>-22.200026999999999</v>
       </c>
       <c r="E14" s="17">
         <v>-10.561199</v>
       </c>
       <c r="F14" s="17">
-        <v>1.638</v>
+        <v>1.6379999999999999</v>
       </c>
       <c r="G14" s="17">
-        <v>4.761778</v>
+        <v>4.7617779999999996</v>
       </c>
       <c r="H14" s="17">
-        <v>-0.343</v>
+        <v>-0.34300000000000003</v>
       </c>
       <c r="I14" s="17">
-        <v>1.612</v>
+        <v>1.6120000000000001</v>
       </c>
       <c r="J14" s="17">
-        <v>0.571</v>
+        <v>0.57099999999999995</v>
       </c>
       <c r="K14" s="17">
-        <v>0.324</v>
+        <v>0.32400000000000001</v>
       </c>
       <c r="L14" s="17">
         <v>6.290629</v>
@@ -2301,7 +2497,7 @@
       <c r="Q14" s="11"/>
       <c r="R14" s="11"/>
     </row>
-    <row r="15" ht="12.75" customHeight="1">
+    <row r="15" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
         <v>23</v>
       </c>
@@ -2345,7 +2541,7 @@
       <c r="Q15" s="11"/>
       <c r="R15" s="11"/>
     </row>
-    <row r="16" ht="12.75" customHeight="1">
+    <row r="16" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
         <v>24</v>
       </c>
@@ -2353,10 +2549,10 @@
         <v>11.939481173902449</v>
       </c>
       <c r="C16" s="21">
-        <v>4.290463564278847</v>
+        <v>4.2904635642788467</v>
       </c>
       <c r="D16" s="21">
-        <v>-38.34201554404145</v>
+        <v>-38.342015544041452</v>
       </c>
       <c r="E16" s="21">
         <v>-4.648415052816901</v>
@@ -2380,7 +2576,7 @@
         <v>0.4959505029152399</v>
       </c>
       <c r="L16" s="21">
-        <v>35.94645142857143</v>
+        <v>35.946451428571429</v>
       </c>
       <c r="M16" s="11"/>
       <c r="N16" s="11"/>
@@ -2389,7 +2585,7 @@
       <c r="Q16" s="11"/>
       <c r="R16" s="11"/>
     </row>
-    <row r="17" ht="12.75" customHeight="1">
+    <row r="17" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
         <v>25</v>
       </c>
@@ -2403,22 +2599,22 @@
         <v>0.36</v>
       </c>
       <c r="E17" s="19">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F17" s="19">
         <v>0.6</v>
       </c>
       <c r="G17" s="19">
-        <v>0.682</v>
+        <v>0.68200000000000005</v>
       </c>
       <c r="H17" s="19">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I17" s="19">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J17" s="19">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K17" s="19">
         <v>0.3</v>
@@ -2433,7 +2629,7 @@
       <c r="Q17" s="11"/>
       <c r="R17" s="11"/>
     </row>
-    <row r="18" ht="12.75" customHeight="1">
+    <row r="18" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="22" t="s">
         <v>26</v>
       </c>
@@ -2441,31 +2637,31 @@
         <v>16.330738480959393</v>
       </c>
       <c r="C18" s="23">
-        <v>5.372379850025439</v>
+        <v>5.3723798500254389</v>
       </c>
       <c r="D18" s="23">
-        <v>-0.06003857562875937</v>
+        <v>-6.0038575628759368E-2</v>
       </c>
       <c r="E18" s="23">
-        <v>-0.3544003668522864</v>
+        <v>-0.35440036685228637</v>
       </c>
       <c r="F18" s="23">
         <v>15.435457875457875</v>
       </c>
       <c r="G18" s="23">
-        <v>5.768084165200478</v>
+        <v>5.7680841652004782</v>
       </c>
       <c r="H18" s="23">
-        <v>-8.062711661807581</v>
+        <v>-8.0627116618075814</v>
       </c>
       <c r="I18" s="23">
-        <v>3.530427543424317</v>
+        <v>3.5304275434243171</v>
       </c>
       <c r="J18" s="23">
-        <v>8.334570227670753</v>
+        <v>8.3345702276707527</v>
       </c>
       <c r="K18" s="23">
-        <v>44.29877552469136</v>
+        <v>44.298775524691358</v>
       </c>
       <c r="L18" s="23">
         <v>1.5520308064583048</v>
@@ -2477,36 +2673,36 @@
       <c r="Q18" s="11"/>
       <c r="R18" s="11"/>
     </row>
-    <row r="19" ht="12.75" customHeight="1">
+    <row r="19" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
         <v>27</v>
       </c>
       <c r="B19" s="24">
-        <v>8.516778096147723</v>
+        <v>8.5167780961477231</v>
       </c>
       <c r="C19" s="24">
         <v>4.814139087729199</v>
       </c>
       <c r="D19" s="24">
-        <v>-3.153124796135949</v>
+        <v>-3.1531247961359492</v>
       </c>
       <c r="E19" s="24">
         <v>14.917779351136492</v>
       </c>
       <c r="F19" s="24">
-        <v>7.358400159188141</v>
+        <v>7.3584001591881414</v>
       </c>
       <c r="G19" s="24">
-        <v>4.755777938995821</v>
+        <v>4.7557779389958208</v>
       </c>
       <c r="H19" s="24">
-        <v>9.129698174798175</v>
+        <v>9.1296981747981754</v>
       </c>
       <c r="I19" s="24">
         <v>3.4982133250117027</v>
       </c>
       <c r="J19" s="24">
-        <v>7.416247142506745</v>
+        <v>7.4162471425067453</v>
       </c>
       <c r="K19" s="24">
         <v>7.740716613931812</v>
@@ -2521,7 +2717,7 @@
       <c r="Q19" s="11"/>
       <c r="R19" s="11"/>
     </row>
-    <row r="20" ht="12.75" customHeight="1">
+    <row r="20" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
         <v>28</v>
       </c>
@@ -2529,19 +2725,19 @@
         <v>43.966103687777675</v>
       </c>
       <c r="C20" s="25">
-        <v>99.77358353288773</v>
+        <v>99.773583532887727</v>
       </c>
       <c r="D20" s="25">
-        <v>-32.10856378600823</v>
+        <v>-32.108563786008233</v>
       </c>
       <c r="E20" s="25">
         <v>27.154014084507043</v>
       </c>
       <c r="F20" s="25">
-        <v>36.78774303115484</v>
+        <v>36.787743031154839</v>
       </c>
       <c r="G20" s="25">
-        <v>63.45117344658024</v>
+        <v>63.451173446580242</v>
       </c>
       <c r="H20" s="25">
         <v>13.710298363811358</v>
@@ -2553,10 +2749,10 @@
         <v>31.125701416192694</v>
       </c>
       <c r="K20" s="25">
-        <v>81.50658230125649</v>
+        <v>81.506582301256486</v>
       </c>
       <c r="L20" s="25">
-        <v>813.4567284051794</v>
+        <v>813.45672840517943</v>
       </c>
       <c r="M20" s="11"/>
       <c r="N20" s="11"/>
@@ -2565,42 +2761,42 @@
       <c r="Q20" s="11"/>
       <c r="R20" s="11"/>
     </row>
-    <row r="21" ht="12.75" customHeight="1">
+    <row r="21" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
         <v>29</v>
       </c>
       <c r="B21" s="26">
-        <v>0.0556</v>
+        <v>5.5599999999999997E-2</v>
       </c>
       <c r="C21" s="26">
-        <v>0.0708</v>
+        <v>7.0800000000000002E-2</v>
       </c>
       <c r="D21" s="26" t="s">
         <v>30</v>
       </c>
       <c r="E21" s="26">
-        <v>-0.0533</v>
+        <v>-5.33E-2</v>
       </c>
       <c r="F21" s="26">
-        <v>0.0191</v>
+        <v>1.9099999999999999E-2</v>
       </c>
       <c r="G21" s="26">
-        <v>0.0691</v>
+        <v>6.9099999999999995E-2</v>
       </c>
       <c r="H21" s="26">
-        <v>-8.0E-4</v>
+        <v>-8.0000000000000004E-4</v>
       </c>
       <c r="I21" s="26">
-        <v>0.0823</v>
+        <v>8.2299999999999998E-2</v>
       </c>
       <c r="J21" s="26">
-        <v>0.0175</v>
+        <v>1.7500000000000002E-2</v>
       </c>
       <c r="K21" s="26">
-        <v>0.006500000000000001</v>
+        <v>6.5000000000000006E-3</v>
       </c>
       <c r="L21" s="26">
-        <v>0.2821</v>
+        <v>0.28210000000000002</v>
       </c>
       <c r="M21" s="11"/>
       <c r="N21" s="11"/>
@@ -2609,21 +2805,21 @@
       <c r="Q21" s="11"/>
       <c r="R21" s="11"/>
     </row>
-    <row r="22" ht="12.75" customHeight="1">
+    <row r="22" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="16" t="s">
         <v>31</v>
       </c>
       <c r="B22" s="21">
-        <v>0.654</v>
+        <v>0.65400000000000003</v>
       </c>
       <c r="C22" s="21">
         <v>0.874</v>
       </c>
       <c r="D22" s="21">
-        <v>0.818</v>
+        <v>0.81799999999999995</v>
       </c>
       <c r="E22" s="21">
-        <v>0.991</v>
+        <v>0.99099999999999999</v>
       </c>
       <c r="F22" s="21">
         <v>1.587</v>
@@ -2635,16 +2831,16 @@
         <v>1.204</v>
       </c>
       <c r="I22" s="21">
-        <v>1.555</v>
+        <v>1.5549999999999999</v>
       </c>
       <c r="J22" s="21">
-        <v>2.321</v>
+        <v>2.3210000000000002</v>
       </c>
       <c r="K22" s="21">
         <v>1.069</v>
       </c>
       <c r="L22" s="21">
-        <v>1.705</v>
+        <v>1.7050000000000001</v>
       </c>
       <c r="M22" s="11"/>
       <c r="N22" s="11"/>
@@ -2653,42 +2849,42 @@
       <c r="Q22" s="11"/>
       <c r="R22" s="11"/>
     </row>
-    <row r="23" ht="12.75" customHeight="1">
+    <row r="23" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
         <v>33</v>
       </c>
       <c r="B23" s="27">
-        <v>357207.0</v>
+        <v>357207</v>
       </c>
       <c r="C23" s="27">
-        <v>316121.0</v>
+        <v>316121</v>
       </c>
       <c r="D23" s="27">
-        <v>243000.0</v>
+        <v>243000</v>
       </c>
       <c r="E23" s="27">
-        <v>213000.0</v>
+        <v>213000</v>
       </c>
       <c r="F23" s="27">
-        <v>273216.0</v>
+        <v>273216</v>
       </c>
       <c r="G23" s="27">
-        <v>178960.0</v>
+        <v>178960</v>
       </c>
       <c r="H23" s="27">
-        <v>207800.0</v>
+        <v>207800</v>
       </c>
       <c r="I23" s="27">
-        <v>198348.0</v>
+        <v>198348</v>
       </c>
       <c r="J23" s="27">
-        <v>130985.0</v>
+        <v>130985</v>
       </c>
       <c r="K23" s="27">
-        <v>100041.0</v>
+        <v>100041</v>
       </c>
       <c r="L23" s="27">
-        <v>12202.0</v>
+        <v>12202</v>
       </c>
       <c r="M23" s="11"/>
       <c r="N23" s="11"/>
@@ -2697,42 +2893,42 @@
       <c r="Q23" s="11"/>
       <c r="R23" s="11"/>
     </row>
-    <row r="24" ht="12.75" customHeight="1">
+    <row r="24" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="28" t="s">
         <v>34</v>
       </c>
       <c r="B24" s="29">
-        <v>398091.0</v>
+        <v>398091</v>
       </c>
       <c r="C24" s="29">
-        <v>3177445.0</v>
+        <v>3177445</v>
       </c>
       <c r="D24" s="29">
-        <v>579000.0</v>
+        <v>579000</v>
       </c>
       <c r="E24" s="29">
-        <v>2272000.0</v>
+        <v>2272000</v>
       </c>
       <c r="F24" s="29">
-        <v>957700.0</v>
+        <v>957700</v>
       </c>
       <c r="G24" s="29">
-        <v>1815356.0</v>
+        <v>1815356</v>
       </c>
       <c r="H24" s="29">
-        <v>227614.0</v>
+        <v>227614</v>
       </c>
       <c r="I24" s="29">
-        <v>1239880.0</v>
+        <v>1239880</v>
       </c>
       <c r="J24" s="29">
-        <v>256552.0</v>
+        <v>256552</v>
       </c>
       <c r="K24" s="29">
-        <v>653291.0</v>
+        <v>653291</v>
       </c>
       <c r="L24" s="29">
-        <v>175000.0</v>
+        <v>175000</v>
       </c>
       <c r="M24" s="11"/>
       <c r="N24" s="11"/>
@@ -2741,7 +2937,7 @@
       <c r="Q24" s="11"/>
       <c r="R24" s="11"/>
     </row>
-    <row r="25" ht="12.75" customHeight="1">
+    <row r="25" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="18"/>
       <c r="B25" s="30"/>
       <c r="C25" s="30"/>
@@ -2761,7 +2957,7 @@
       <c r="Q25" s="3"/>
       <c r="R25" s="3"/>
     </row>
-    <row r="26" ht="12.75" customHeight="1">
+    <row r="26" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="31" t="s">
         <v>35</v>
       </c>
@@ -2783,7 +2979,7 @@
       <c r="Q26" s="33"/>
       <c r="R26" s="33"/>
     </row>
-    <row r="27" ht="12.75" customHeight="1">
+    <row r="27" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -2803,7 +2999,7 @@
       <c r="Q27" s="3"/>
       <c r="R27" s="3"/>
     </row>
-    <row r="28" ht="12.75" customHeight="1">
+    <row r="28" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="34" t="s">
         <v>36</v>
       </c>
@@ -2825,10 +3021,21 @@
       <c r="Q28" s="3"/>
       <c r="R28" s="3"/>
     </row>
-    <row r="29" ht="12.75" customHeight="1">
-      <c r="A29" s="35" t="s">
+    <row r="29" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="155" t="s">
         <v>37</v>
       </c>
+      <c r="B29" s="156"/>
+      <c r="C29" s="156"/>
+      <c r="D29" s="156"/>
+      <c r="E29" s="156"/>
+      <c r="F29" s="156"/>
+      <c r="G29" s="156"/>
+      <c r="H29" s="156"/>
+      <c r="I29" s="156"/>
+      <c r="J29" s="156"/>
+      <c r="K29" s="156"/>
+      <c r="L29" s="156"/>
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
@@ -2836,7 +3043,19 @@
       <c r="Q29" s="3"/>
       <c r="R29" s="3"/>
     </row>
-    <row r="30" ht="12.75" customHeight="1">
+    <row r="30" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="156"/>
+      <c r="B30" s="156"/>
+      <c r="C30" s="156"/>
+      <c r="D30" s="156"/>
+      <c r="E30" s="156"/>
+      <c r="F30" s="156"/>
+      <c r="G30" s="156"/>
+      <c r="H30" s="156"/>
+      <c r="I30" s="156"/>
+      <c r="J30" s="156"/>
+      <c r="K30" s="156"/>
+      <c r="L30" s="156"/>
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
       <c r="O30" s="3"/>
@@ -2844,7 +3063,19 @@
       <c r="Q30" s="3"/>
       <c r="R30" s="3"/>
     </row>
-    <row r="31" ht="12.75" customHeight="1">
+    <row r="31" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="156"/>
+      <c r="B31" s="156"/>
+      <c r="C31" s="156"/>
+      <c r="D31" s="156"/>
+      <c r="E31" s="156"/>
+      <c r="F31" s="156"/>
+      <c r="G31" s="156"/>
+      <c r="H31" s="156"/>
+      <c r="I31" s="156"/>
+      <c r="J31" s="156"/>
+      <c r="K31" s="156"/>
+      <c r="L31" s="156"/>
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
       <c r="O31" s="3"/>
@@ -2852,7 +3083,7 @@
       <c r="Q31" s="3"/>
       <c r="R31" s="3"/>
     </row>
-    <row r="32" ht="12.75" customHeight="1">
+    <row r="32" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="34"/>
       <c r="B32" s="34"/>
       <c r="C32" s="34"/>
@@ -2872,13 +3103,13 @@
       <c r="Q32" s="3"/>
       <c r="R32" s="3"/>
     </row>
-    <row r="33" ht="12.75" customHeight="1">
+    <row r="33" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
       <c r="B33" s="2"/>
-      <c r="C33" s="36" t="s">
+      <c r="C33" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="D33" s="36" t="s">
+      <c r="D33" s="35" t="s">
         <v>38</v>
       </c>
       <c r="E33" s="3"/>
@@ -2896,15 +3127,19 @@
       <c r="Q33" s="3"/>
       <c r="R33" s="3"/>
     </row>
-    <row r="34" ht="12.75" customHeight="1">
-      <c r="A34" s="37" t="s">
+    <row r="34" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="B34" s="37" t="s">
+      <c r="B34" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="C34" s="38"/>
-      <c r="D34" s="38"/>
+      <c r="C34" s="37">
+        <v>16.260000000000002</v>
+      </c>
+      <c r="D34" s="37">
+        <v>7.58</v>
+      </c>
       <c r="E34" s="11"/>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
@@ -2920,13 +3155,17 @@
       <c r="Q34" s="11"/>
       <c r="R34" s="11"/>
     </row>
-    <row r="35" ht="12.75" customHeight="1">
+    <row r="35" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="11"/>
-      <c r="B35" s="37" t="s">
+      <c r="B35" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="C35" s="39"/>
-      <c r="D35" s="39"/>
+      <c r="C35" s="38">
+        <v>11.94</v>
+      </c>
+      <c r="D35" s="38">
+        <v>11.94</v>
+      </c>
       <c r="E35" s="11"/>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
@@ -2942,11 +3181,11 @@
       <c r="Q35" s="11"/>
       <c r="R35" s="11"/>
     </row>
-    <row r="36" ht="12.75" customHeight="1">
+    <row r="36" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="11"/>
-      <c r="B36" s="40"/>
-      <c r="C36" s="40"/>
-      <c r="D36" s="40"/>
+      <c r="B36" s="39"/>
+      <c r="C36" s="39"/>
+      <c r="D36" s="39"/>
       <c r="E36" s="11"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
@@ -2962,14 +3201,20 @@
       <c r="Q36" s="11"/>
       <c r="R36" s="11"/>
     </row>
-    <row r="37" ht="12.75" customHeight="1">
+    <row r="37" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="11"/>
-      <c r="B37" s="41" t="s">
+      <c r="B37" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="C37" s="42"/>
-      <c r="D37" s="42"/>
-      <c r="E37" s="11"/>
+      <c r="C37" s="41">
+        <v>194.2</v>
+      </c>
+      <c r="D37" s="41">
+        <v>90.52</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>92</v>
+      </c>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
@@ -2984,7 +3229,7 @@
       <c r="Q37" s="11"/>
       <c r="R37" s="11"/>
     </row>
-    <row r="38" ht="12.75" customHeight="1">
+    <row r="38" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -3004,7 +3249,7 @@
       <c r="Q38" s="3"/>
       <c r="R38" s="3"/>
     </row>
-    <row r="39" ht="12.75" customHeight="1">
+    <row r="39" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="34" t="s">
         <v>43</v>
       </c>
@@ -3026,7 +3271,7 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
     </row>
-    <row r="40" ht="12.75" customHeight="1">
+    <row r="40" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="34" t="s">
         <v>44</v>
       </c>
@@ -3048,7 +3293,7 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
     </row>
-    <row r="41" ht="12.75" customHeight="1">
+    <row r="41" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -3068,39 +3313,39 @@
       <c r="Q41" s="3"/>
       <c r="R41" s="3"/>
     </row>
-    <row r="42" ht="12.75" customHeight="1">
+    <row r="42" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="18"/>
-      <c r="B42" s="43" t="s">
+      <c r="B42" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="C42" s="44" t="s">
+      <c r="C42" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="D42" s="44" t="s">
+      <c r="D42" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="E42" s="44" t="s">
+      <c r="E42" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="F42" s="44" t="s">
+      <c r="F42" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="G42" s="44" t="s">
+      <c r="G42" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="H42" s="44" t="s">
+      <c r="H42" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="I42" s="44" t="s">
+      <c r="I42" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="J42" s="44" t="s">
+      <c r="J42" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="K42" s="44" t="s">
+      <c r="K42" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="L42" s="45" t="s">
+      <c r="L42" s="44" t="s">
         <v>13</v>
       </c>
       <c r="M42" s="3"/>
@@ -3110,21 +3355,43 @@
       <c r="Q42" s="3"/>
       <c r="R42" s="3"/>
     </row>
-    <row r="43" ht="12.75" customHeight="1">
-      <c r="A43" s="46" t="s">
+    <row r="43" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="B43" s="47"/>
-      <c r="C43" s="48"/>
-      <c r="D43" s="48"/>
-      <c r="E43" s="48"/>
-      <c r="F43" s="48"/>
-      <c r="G43" s="48"/>
-      <c r="H43" s="48"/>
-      <c r="I43" s="48"/>
-      <c r="J43" s="48"/>
-      <c r="K43" s="48"/>
-      <c r="L43" s="49"/>
+      <c r="B43" s="15">
+        <v>113.81</v>
+      </c>
+      <c r="C43" s="13">
+        <v>208.63</v>
+      </c>
+      <c r="D43" s="13">
+        <v>107.17</v>
+      </c>
+      <c r="E43" s="13">
+        <v>105.23</v>
+      </c>
+      <c r="F43" s="13">
+        <v>95.87</v>
+      </c>
+      <c r="G43" s="13">
+        <v>95.25</v>
+      </c>
+      <c r="H43" s="13">
+        <v>54.36</v>
+      </c>
+      <c r="I43" s="13">
+        <v>22.420049200000001</v>
+      </c>
+      <c r="J43" s="13">
+        <v>30.23603</v>
+      </c>
+      <c r="K43" s="13">
+        <v>63.117803269999996</v>
+      </c>
+      <c r="L43" s="13">
+        <v>17.556322000000002</v>
+      </c>
       <c r="M43" s="3"/>
       <c r="N43" s="3"/>
       <c r="O43" s="3"/>
@@ -3132,21 +3399,43 @@
       <c r="Q43" s="3"/>
       <c r="R43" s="3"/>
     </row>
-    <row r="44" ht="12.75" customHeight="1">
-      <c r="A44" s="50" t="s">
+    <row r="44" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="B44" s="51"/>
-      <c r="C44" s="52"/>
-      <c r="D44" s="52"/>
-      <c r="E44" s="52"/>
-      <c r="F44" s="52"/>
-      <c r="G44" s="52"/>
-      <c r="H44" s="52"/>
-      <c r="I44" s="52"/>
-      <c r="J44" s="52"/>
-      <c r="K44" s="52"/>
-      <c r="L44" s="53"/>
+      <c r="B44" s="47">
+        <v>15.71</v>
+      </c>
+      <c r="C44" s="15">
+        <v>31.54</v>
+      </c>
+      <c r="D44" s="15">
+        <v>-7.8</v>
+      </c>
+      <c r="E44" s="15">
+        <v>5.78</v>
+      </c>
+      <c r="F44" s="15">
+        <v>10.050000000000001</v>
+      </c>
+      <c r="G44" s="15">
+        <v>34.876306999999997</v>
+      </c>
+      <c r="H44" s="15">
+        <v>27.93</v>
+      </c>
+      <c r="I44" s="15">
+        <v>6.41</v>
+      </c>
+      <c r="J44" s="15">
+        <v>10.050000000000001</v>
+      </c>
+      <c r="K44" s="15">
+        <v>59.524999999999999</v>
+      </c>
+      <c r="L44" s="15">
+        <v>18.165799</v>
+      </c>
       <c r="M44" s="3"/>
       <c r="N44" s="3"/>
       <c r="O44" s="3"/>
@@ -3154,21 +3443,31 @@
       <c r="Q44" s="3"/>
       <c r="R44" s="3"/>
     </row>
-    <row r="45" ht="12.75" customHeight="1">
-      <c r="A45" s="54" t="s">
+    <row r="45" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="B45" s="55"/>
-      <c r="C45" s="56"/>
-      <c r="D45" s="56"/>
-      <c r="E45" s="56"/>
-      <c r="F45" s="56"/>
-      <c r="G45" s="56"/>
-      <c r="H45" s="56"/>
-      <c r="I45" s="56"/>
-      <c r="J45" s="56"/>
-      <c r="K45" s="56"/>
-      <c r="L45" s="57"/>
+      <c r="B45" s="49"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="17">
+        <v>36.062292999999997</v>
+      </c>
+      <c r="H45" s="17">
+        <v>13.143000000000001</v>
+      </c>
+      <c r="I45" s="17"/>
+      <c r="J45" s="17">
+        <v>231.8</v>
+      </c>
+      <c r="K45" s="17">
+        <v>20.265000000000001</v>
+      </c>
+      <c r="L45" s="17">
+        <v>15.066283</v>
+      </c>
       <c r="M45" s="3"/>
       <c r="N45" s="3"/>
       <c r="O45" s="3"/>
@@ -3176,21 +3475,37 @@
       <c r="Q45" s="3"/>
       <c r="R45" s="3"/>
     </row>
-    <row r="46" ht="12.75" customHeight="1">
-      <c r="A46" s="58" t="s">
+    <row r="46" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="B46" s="59"/>
-      <c r="C46" s="60"/>
-      <c r="D46" s="60"/>
-      <c r="E46" s="60"/>
-      <c r="F46" s="60"/>
-      <c r="G46" s="60"/>
-      <c r="H46" s="60"/>
-      <c r="I46" s="60"/>
-      <c r="J46" s="60"/>
-      <c r="K46" s="60"/>
-      <c r="L46" s="61"/>
+      <c r="B46" s="51">
+        <v>0.89400000000000002</v>
+      </c>
+      <c r="C46" s="15">
+        <v>1.3223</v>
+      </c>
+      <c r="D46" s="15">
+        <v>25.119</v>
+      </c>
+      <c r="E46" s="15">
+        <v>2973.1</v>
+      </c>
+      <c r="F46" s="15">
+        <v>231.9</v>
+      </c>
+      <c r="G46" s="15">
+        <v>27.46633628</v>
+      </c>
+      <c r="H46" s="15">
+        <v>2.7655101000000002</v>
+      </c>
+      <c r="I46" s="15">
+        <v>375.7</v>
+      </c>
+      <c r="J46" s="15"/>
+      <c r="K46" s="15"/>
+      <c r="L46" s="15"/>
       <c r="M46" s="3"/>
       <c r="N46" s="3"/>
       <c r="O46" s="3"/>
@@ -3198,21 +3513,41 @@
       <c r="Q46" s="3"/>
       <c r="R46" s="3"/>
     </row>
-    <row r="47" ht="12.75" customHeight="1">
-      <c r="A47" s="58" t="s">
+    <row r="47" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="B47" s="62"/>
-      <c r="C47" s="63"/>
-      <c r="D47" s="63"/>
-      <c r="E47" s="63"/>
-      <c r="F47" s="63"/>
-      <c r="G47" s="63"/>
-      <c r="H47" s="63"/>
-      <c r="I47" s="63"/>
-      <c r="J47" s="63"/>
-      <c r="K47" s="63"/>
-      <c r="L47" s="64"/>
+      <c r="B47" s="52">
+        <v>4.1763320680443999E-4</v>
+      </c>
+      <c r="C47" s="17"/>
+      <c r="D47" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E47" s="17">
+        <v>-0.05</v>
+      </c>
+      <c r="F47" s="17">
+        <v>6.9119999999999999</v>
+      </c>
+      <c r="G47" s="17">
+        <v>8.3397279999999991</v>
+      </c>
+      <c r="H47" s="17">
+        <v>2.0950000000000002</v>
+      </c>
+      <c r="I47" s="17">
+        <v>0.08</v>
+      </c>
+      <c r="J47" s="17">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K47" s="17">
+        <v>0</v>
+      </c>
+      <c r="L47" s="17">
+        <v>0.08</v>
+      </c>
       <c r="M47" s="3"/>
       <c r="N47" s="3"/>
       <c r="O47" s="3"/>
@@ -3220,21 +3555,43 @@
       <c r="Q47" s="3"/>
       <c r="R47" s="3"/>
     </row>
-    <row r="48" ht="12.75" customHeight="1">
-      <c r="A48" s="65" t="s">
+    <row r="48" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="B48" s="66"/>
-      <c r="C48" s="67"/>
-      <c r="D48" s="67"/>
-      <c r="E48" s="67"/>
-      <c r="F48" s="67"/>
-      <c r="G48" s="67"/>
-      <c r="H48" s="67"/>
-      <c r="I48" s="67"/>
-      <c r="J48" s="67"/>
-      <c r="K48" s="67"/>
-      <c r="L48" s="68"/>
+      <c r="B48" s="54">
+        <v>11.94</v>
+      </c>
+      <c r="C48" s="15">
+        <v>4.29</v>
+      </c>
+      <c r="D48" s="15">
+        <v>-38.340000000000003</v>
+      </c>
+      <c r="E48" s="15">
+        <v>-4.6500000000000004</v>
+      </c>
+      <c r="F48" s="15">
+        <v>48.676000000000002</v>
+      </c>
+      <c r="G48" s="15">
+        <v>26.536577999999999</v>
+      </c>
+      <c r="H48" s="15">
+        <v>23.245000000000001</v>
+      </c>
+      <c r="I48" s="15">
+        <v>16.728999999999999</v>
+      </c>
+      <c r="J48" s="15">
+        <v>2.62</v>
+      </c>
+      <c r="K48" s="15">
+        <v>-1.51</v>
+      </c>
+      <c r="L48" s="15">
+        <v>1.3</v>
+      </c>
       <c r="M48" s="3"/>
       <c r="N48" s="3"/>
       <c r="O48" s="3"/>
@@ -3242,21 +3599,41 @@
       <c r="Q48" s="3"/>
       <c r="R48" s="3"/>
     </row>
-    <row r="49" ht="12.75" customHeight="1">
-      <c r="A49" s="69" t="s">
+    <row r="49" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="B49" s="70"/>
-      <c r="C49" s="19"/>
-      <c r="D49" s="19"/>
-      <c r="E49" s="19"/>
-      <c r="F49" s="19"/>
-      <c r="G49" s="19"/>
-      <c r="H49" s="19"/>
-      <c r="I49" s="19"/>
-      <c r="J49" s="19"/>
-      <c r="K49" s="19"/>
-      <c r="L49" s="71"/>
+      <c r="B49" s="56">
+        <v>194.19</v>
+      </c>
+      <c r="C49" s="17">
+        <v>23.05</v>
+      </c>
+      <c r="D49" s="17">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E49" s="17">
+        <v>1.65</v>
+      </c>
+      <c r="F49" s="17">
+        <v>95.873000000000005</v>
+      </c>
+      <c r="G49" s="17">
+        <v>95.251866000000007</v>
+      </c>
+      <c r="H49" s="17"/>
+      <c r="I49" s="17">
+        <v>59.38</v>
+      </c>
+      <c r="J49" s="17">
+        <v>15.13</v>
+      </c>
+      <c r="K49" s="17">
+        <v>12.15</v>
+      </c>
+      <c r="L49" s="17">
+        <v>4.59</v>
+      </c>
       <c r="M49" s="3"/>
       <c r="N49" s="3"/>
       <c r="O49" s="3"/>
@@ -3264,21 +3641,43 @@
       <c r="Q49" s="3"/>
       <c r="R49" s="3"/>
     </row>
-    <row r="50" ht="12.75" customHeight="1">
-      <c r="A50" s="72" t="s">
+    <row r="50" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="B50" s="73"/>
-      <c r="C50" s="74"/>
-      <c r="D50" s="74"/>
-      <c r="E50" s="74"/>
-      <c r="F50" s="74"/>
-      <c r="G50" s="74"/>
-      <c r="H50" s="74"/>
-      <c r="I50" s="74"/>
-      <c r="J50" s="74"/>
-      <c r="K50" s="74"/>
-      <c r="L50" s="75"/>
+      <c r="B50" s="58" t="s">
+        <v>120</v>
+      </c>
+      <c r="C50" s="59" t="s">
+        <v>121</v>
+      </c>
+      <c r="D50" s="59">
+        <v>-0.1</v>
+      </c>
+      <c r="E50" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="F50" s="59" t="s">
+        <v>126</v>
+      </c>
+      <c r="G50" s="59" t="s">
+        <v>123</v>
+      </c>
+      <c r="H50" s="59">
+        <v>-8.1</v>
+      </c>
+      <c r="I50" s="59" t="s">
+        <v>113</v>
+      </c>
+      <c r="J50" s="59" t="s">
+        <v>125</v>
+      </c>
+      <c r="K50" s="59" t="s">
+        <v>124</v>
+      </c>
+      <c r="L50" s="60" t="s">
+        <v>122</v>
+      </c>
       <c r="M50" s="3"/>
       <c r="N50" s="3"/>
       <c r="O50" s="3"/>
@@ -3286,19 +3685,19 @@
       <c r="Q50" s="3"/>
       <c r="R50" s="3"/>
     </row>
-    <row r="51" ht="12.75" customHeight="1">
-      <c r="A51" s="76"/>
-      <c r="B51" s="77"/>
-      <c r="C51" s="77"/>
-      <c r="D51" s="77"/>
-      <c r="E51" s="77"/>
-      <c r="F51" s="77"/>
-      <c r="G51" s="77"/>
-      <c r="H51" s="77"/>
-      <c r="I51" s="77"/>
-      <c r="J51" s="77"/>
-      <c r="K51" s="77"/>
-      <c r="L51" s="77"/>
+    <row r="51" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="61"/>
+      <c r="B51" s="62"/>
+      <c r="C51" s="62"/>
+      <c r="D51" s="62"/>
+      <c r="E51" s="62"/>
+      <c r="F51" s="62"/>
+      <c r="G51" s="62"/>
+      <c r="H51" s="62"/>
+      <c r="I51" s="62"/>
+      <c r="J51" s="62"/>
+      <c r="K51" s="62"/>
+      <c r="L51" s="62"/>
       <c r="M51" s="3"/>
       <c r="N51" s="3"/>
       <c r="O51" s="3"/>
@@ -3306,8 +3705,19 @@
       <c r="Q51" s="3"/>
       <c r="R51" s="3"/>
     </row>
-    <row r="52" ht="12.75" customHeight="1">
-      <c r="A52" s="78"/>
+    <row r="52" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="157"/>
+      <c r="B52" s="156"/>
+      <c r="C52" s="156"/>
+      <c r="D52" s="156"/>
+      <c r="E52" s="156"/>
+      <c r="F52" s="156"/>
+      <c r="G52" s="156"/>
+      <c r="H52" s="156"/>
+      <c r="I52" s="156"/>
+      <c r="J52" s="156"/>
+      <c r="K52" s="156"/>
+      <c r="L52" s="156"/>
       <c r="M52" s="3"/>
       <c r="N52" s="3"/>
       <c r="O52" s="3"/>
@@ -3315,7 +3725,19 @@
       <c r="Q52" s="3"/>
       <c r="R52" s="3"/>
     </row>
-    <row r="53" ht="12.75" customHeight="1">
+    <row r="53" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="156"/>
+      <c r="B53" s="156"/>
+      <c r="C53" s="156"/>
+      <c r="D53" s="156"/>
+      <c r="E53" s="156"/>
+      <c r="F53" s="156"/>
+      <c r="G53" s="156"/>
+      <c r="H53" s="156"/>
+      <c r="I53" s="156"/>
+      <c r="J53" s="156"/>
+      <c r="K53" s="156"/>
+      <c r="L53" s="156"/>
       <c r="M53" s="3"/>
       <c r="N53" s="3"/>
       <c r="O53" s="3"/>
@@ -3323,7 +3745,7 @@
       <c r="Q53" s="3"/>
       <c r="R53" s="3"/>
     </row>
-    <row r="54" ht="12.75" customHeight="1">
+    <row r="54" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -3343,18 +3765,18 @@
       <c r="Q54" s="3"/>
       <c r="R54" s="3"/>
     </row>
-    <row r="55" ht="12.75" customHeight="1">
+    <row r="55" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3"/>
-      <c r="B55" s="79" t="s">
+      <c r="B55" s="63" t="s">
         <v>52</v>
       </c>
-      <c r="C55" s="79" t="s">
+      <c r="C55" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="D55" s="79" t="s">
+      <c r="D55" s="63" t="s">
         <v>53</v>
       </c>
-      <c r="E55" s="79" t="s">
+      <c r="E55" s="63" t="s">
         <v>54</v>
       </c>
       <c r="F55" s="3"/>
@@ -3371,14 +3793,22 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
     </row>
-    <row r="56" ht="12.75" customHeight="1">
-      <c r="A56" s="80" t="s">
+    <row r="56" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="B56" s="81"/>
-      <c r="C56" s="82"/>
-      <c r="D56" s="83"/>
-      <c r="E56" s="83"/>
+      <c r="B56" s="65">
+        <v>181.2</v>
+      </c>
+      <c r="C56" s="66">
+        <v>45.41</v>
+      </c>
+      <c r="D56" s="67">
+        <v>32.71</v>
+      </c>
+      <c r="E56" s="67">
+        <v>0.38</v>
+      </c>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="H56" s="3"/>
@@ -3393,14 +3823,22 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
     </row>
-    <row r="57" ht="12.75" customHeight="1">
-      <c r="A57" s="80" t="s">
-        <v>55</v>
-      </c>
-      <c r="B57" s="84"/>
-      <c r="C57" s="40"/>
-      <c r="D57" s="85"/>
-      <c r="E57" s="85"/>
+    <row r="57" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="B57" s="68">
+        <v>30.45</v>
+      </c>
+      <c r="C57" s="39">
+        <v>38.54</v>
+      </c>
+      <c r="D57" s="69">
+        <v>22.23</v>
+      </c>
+      <c r="E57" s="69">
+        <v>1.39</v>
+      </c>
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
@@ -3415,14 +3853,22 @@
       <c r="Q57" s="3"/>
       <c r="R57" s="3"/>
     </row>
-    <row r="58" ht="12.75" customHeight="1">
-      <c r="A58" s="86" t="s">
-        <v>56</v>
-      </c>
-      <c r="B58" s="84"/>
-      <c r="C58" s="40"/>
-      <c r="D58" s="85"/>
-      <c r="E58" s="85"/>
+    <row r="58" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="70" t="s">
+        <v>7</v>
+      </c>
+      <c r="B58" s="68">
+        <v>27.57</v>
+      </c>
+      <c r="C58" s="39">
+        <v>20.57</v>
+      </c>
+      <c r="D58" s="69">
+        <v>20.12</v>
+      </c>
+      <c r="E58" s="69">
+        <v>1.39</v>
+      </c>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="H58" s="3"/>
@@ -3437,14 +3883,22 @@
       <c r="Q58" s="3"/>
       <c r="R58" s="3"/>
     </row>
-    <row r="59" ht="12.75" customHeight="1">
-      <c r="A59" s="86" t="s">
-        <v>57</v>
-      </c>
-      <c r="B59" s="84"/>
-      <c r="C59" s="40"/>
-      <c r="D59" s="85"/>
-      <c r="E59" s="85"/>
+    <row r="59" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="70" t="s">
+        <v>8</v>
+      </c>
+      <c r="B59" s="68">
+        <v>23.36</v>
+      </c>
+      <c r="C59" s="39">
+        <v>26.85</v>
+      </c>
+      <c r="D59" s="69">
+        <v>18.11</v>
+      </c>
+      <c r="E59" s="69">
+        <v>1.38</v>
+      </c>
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>
@@ -3459,14 +3913,14 @@
       <c r="Q59" s="3"/>
       <c r="R59" s="3"/>
     </row>
-    <row r="60" ht="12.75" customHeight="1">
-      <c r="A60" s="87" t="s">
-        <v>58</v>
-      </c>
-      <c r="B60" s="88"/>
-      <c r="C60" s="36"/>
-      <c r="D60" s="89"/>
-      <c r="E60" s="89"/>
+    <row r="60" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="71" t="s">
+        <v>55</v>
+      </c>
+      <c r="B60" s="72"/>
+      <c r="C60" s="35"/>
+      <c r="D60" s="73"/>
+      <c r="E60" s="73"/>
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
       <c r="H60" s="3"/>
@@ -3481,13 +3935,13 @@
       <c r="Q60" s="3"/>
       <c r="R60" s="3"/>
     </row>
-    <row r="61" ht="12.75" customHeight="1">
-      <c r="A61" s="90"/>
-      <c r="B61" s="91"/>
-      <c r="C61" s="40"/>
-      <c r="D61" s="40"/>
-      <c r="E61" s="40"/>
-      <c r="F61" s="91"/>
+    <row r="61" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="74"/>
+      <c r="B61" s="75"/>
+      <c r="C61" s="39"/>
+      <c r="D61" s="39"/>
+      <c r="E61" s="39"/>
+      <c r="F61" s="75"/>
       <c r="G61" s="3"/>
       <c r="H61" s="3"/>
       <c r="I61" s="3"/>
@@ -3501,13 +3955,13 @@
       <c r="Q61" s="3"/>
       <c r="R61" s="3"/>
     </row>
-    <row r="62" ht="12.75" customHeight="1">
+    <row r="62" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="3"/>
       <c r="B62" s="6"/>
-      <c r="C62" s="40"/>
-      <c r="D62" s="40"/>
-      <c r="E62" s="40"/>
-      <c r="F62" s="91"/>
+      <c r="C62" s="39"/>
+      <c r="D62" s="39"/>
+      <c r="E62" s="39"/>
+      <c r="F62" s="75"/>
       <c r="G62" s="3"/>
       <c r="H62" s="3"/>
       <c r="I62" s="3"/>
@@ -3521,19 +3975,19 @@
       <c r="Q62" s="3"/>
       <c r="R62" s="3"/>
     </row>
-    <row r="63" ht="12.75" customHeight="1">
+    <row r="63" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="3"/>
       <c r="B63" s="4"/>
-      <c r="C63" s="92" t="s">
-        <v>59</v>
-      </c>
-      <c r="D63" s="93" t="s">
-        <v>60</v>
-      </c>
-      <c r="E63" s="94" t="s">
-        <v>61</v>
-      </c>
-      <c r="F63" s="91"/>
+      <c r="C63" s="76" t="s">
+        <v>56</v>
+      </c>
+      <c r="D63" s="77" t="s">
+        <v>57</v>
+      </c>
+      <c r="E63" s="78" t="s">
+        <v>58</v>
+      </c>
+      <c r="F63" s="75"/>
       <c r="G63" s="3"/>
       <c r="H63" s="3"/>
       <c r="I63" s="3"/>
@@ -3547,15 +4001,21 @@
       <c r="Q63" s="3"/>
       <c r="R63" s="3"/>
     </row>
-    <row r="64" ht="12.75" customHeight="1">
+    <row r="64" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="3"/>
-      <c r="B64" s="80" t="s">
+      <c r="B64" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="C64" s="95"/>
-      <c r="D64" s="95"/>
-      <c r="E64" s="95"/>
-      <c r="F64" s="91"/>
+      <c r="C64" s="79">
+        <v>15.18</v>
+      </c>
+      <c r="D64" s="79">
+        <v>45.41</v>
+      </c>
+      <c r="E64" s="79">
+        <v>32.71</v>
+      </c>
+      <c r="F64" s="75"/>
       <c r="G64" s="3"/>
       <c r="H64" s="3"/>
       <c r="I64" s="3"/>
@@ -3569,15 +4029,21 @@
       <c r="Q64" s="3"/>
       <c r="R64" s="3"/>
     </row>
-    <row r="65" ht="12.75" customHeight="1">
+    <row r="65" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="3"/>
-      <c r="B65" s="80" t="s">
-        <v>55</v>
-      </c>
-      <c r="C65" s="96"/>
-      <c r="D65" s="96"/>
-      <c r="E65" s="96"/>
-      <c r="F65" s="91"/>
+      <c r="B65" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="C65" s="80">
+        <v>7.1</v>
+      </c>
+      <c r="D65" s="80">
+        <v>38.54</v>
+      </c>
+      <c r="E65" s="80">
+        <v>22.23</v>
+      </c>
+      <c r="F65" s="75"/>
       <c r="G65" s="3"/>
       <c r="H65" s="3"/>
       <c r="I65" s="3"/>
@@ -3591,15 +4057,21 @@
       <c r="Q65" s="3"/>
       <c r="R65" s="3"/>
     </row>
-    <row r="66" ht="12.75" customHeight="1">
+    <row r="66" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="3"/>
-      <c r="B66" s="86" t="s">
-        <v>56</v>
-      </c>
-      <c r="C66" s="96"/>
-      <c r="D66" s="96"/>
-      <c r="E66" s="96"/>
-      <c r="F66" s="91"/>
+      <c r="B66" s="70" t="s">
+        <v>45</v>
+      </c>
+      <c r="C66" s="80">
+        <v>16.12</v>
+      </c>
+      <c r="D66" s="80">
+        <v>20.57</v>
+      </c>
+      <c r="E66" s="80">
+        <v>20.12</v>
+      </c>
+      <c r="F66" s="75"/>
       <c r="G66" s="3"/>
       <c r="H66" s="3"/>
       <c r="I66" s="3"/>
@@ -3613,15 +4085,21 @@
       <c r="Q66" s="3"/>
       <c r="R66" s="3"/>
     </row>
-    <row r="67" ht="12.75" customHeight="1">
+    <row r="67" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="3"/>
-      <c r="B67" s="97" t="s">
-        <v>57</v>
-      </c>
-      <c r="C67" s="96"/>
-      <c r="D67" s="96"/>
-      <c r="E67" s="96"/>
-      <c r="F67" s="91"/>
+      <c r="B67" s="81" t="s">
+        <v>7</v>
+      </c>
+      <c r="C67" s="80">
+        <v>8.92</v>
+      </c>
+      <c r="D67" s="80">
+        <v>26.85</v>
+      </c>
+      <c r="E67" s="80">
+        <v>18.11</v>
+      </c>
+      <c r="F67" s="75"/>
       <c r="G67" s="3"/>
       <c r="H67" s="3"/>
       <c r="I67" s="3"/>
@@ -3635,15 +4113,15 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
     </row>
-    <row r="68" ht="12.75" customHeight="1">
+    <row r="68" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="3"/>
-      <c r="B68" s="98" t="s">
-        <v>58</v>
-      </c>
-      <c r="C68" s="99"/>
-      <c r="D68" s="99"/>
-      <c r="E68" s="99"/>
-      <c r="F68" s="91"/>
+      <c r="B68" s="82" t="s">
+        <v>55</v>
+      </c>
+      <c r="C68" s="83"/>
+      <c r="D68" s="83"/>
+      <c r="E68" s="83"/>
+      <c r="F68" s="75"/>
       <c r="G68" s="3"/>
       <c r="H68" s="3"/>
       <c r="I68" s="3"/>
@@ -3657,13 +4135,13 @@
       <c r="Q68" s="3"/>
       <c r="R68" s="3"/>
     </row>
-    <row r="69" ht="12.75" customHeight="1">
-      <c r="A69" s="90"/>
-      <c r="B69" s="91"/>
-      <c r="C69" s="40"/>
-      <c r="D69" s="40"/>
-      <c r="E69" s="40"/>
-      <c r="F69" s="91"/>
+    <row r="69" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="74"/>
+      <c r="B69" s="75"/>
+      <c r="C69" s="39"/>
+      <c r="D69" s="39"/>
+      <c r="E69" s="39"/>
+      <c r="F69" s="75"/>
       <c r="G69" s="3"/>
       <c r="H69" s="3"/>
       <c r="I69" s="3"/>
@@ -3677,14 +4155,20 @@
       <c r="Q69" s="3"/>
       <c r="R69" s="3"/>
     </row>
-    <row r="70" ht="12.75" customHeight="1">
-      <c r="A70" s="100" t="s">
-        <v>62</v>
+    <row r="70" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="84" t="s">
+        <v>59</v>
       </c>
       <c r="B70" s="2"/>
-      <c r="C70" s="42"/>
-      <c r="D70" s="42"/>
-      <c r="E70" s="42"/>
+      <c r="C70" s="41">
+        <v>8.92</v>
+      </c>
+      <c r="D70" s="41">
+        <v>26.85</v>
+      </c>
+      <c r="E70" s="41">
+        <v>20.12</v>
+      </c>
       <c r="F70" s="3"/>
       <c r="G70" s="3"/>
       <c r="H70" s="3"/>
@@ -3699,7 +4183,7 @@
       <c r="Q70" s="3"/>
       <c r="R70" s="3"/>
     </row>
-    <row r="71" ht="12.75" customHeight="1">
+    <row r="71" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="3"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -3719,9 +4203,9 @@
       <c r="Q71" s="3"/>
       <c r="R71" s="3"/>
     </row>
-    <row r="72" ht="12.75" customHeight="1">
+    <row r="72" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="34" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -3741,9 +4225,9 @@
       <c r="Q72" s="3"/>
       <c r="R72" s="3"/>
     </row>
-    <row r="73" ht="12.75" customHeight="1">
+    <row r="73" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="34" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -3763,7 +4247,7 @@
       <c r="Q73" s="3"/>
       <c r="R73" s="3"/>
     </row>
-    <row r="74" ht="12.75" customHeight="1">
+    <row r="74" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="3"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -3783,7 +4267,7 @@
       <c r="Q74" s="3"/>
       <c r="R74" s="3"/>
     </row>
-    <row r="75" ht="12.75" customHeight="1">
+    <row r="75" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="6"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -3803,16 +4287,16 @@
       <c r="Q75" s="3"/>
       <c r="R75" s="3"/>
     </row>
-    <row r="76" ht="12.75" customHeight="1">
-      <c r="A76" s="101"/>
-      <c r="B76" s="102" t="s">
-        <v>65</v>
-      </c>
-      <c r="C76" s="79" t="s">
+    <row r="76" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="85"/>
+      <c r="B76" s="86" t="s">
+        <v>62</v>
+      </c>
+      <c r="C76" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="D76" s="102" t="s">
-        <v>66</v>
+      <c r="D76" s="86" t="s">
+        <v>63</v>
       </c>
       <c r="E76" s="3"/>
       <c r="F76" s="3"/>
@@ -3829,13 +4313,19 @@
       <c r="Q76" s="3"/>
       <c r="R76" s="3"/>
     </row>
-    <row r="77" ht="12.75" customHeight="1">
-      <c r="A77" s="103" t="s">
+    <row r="77" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="87" t="s">
         <v>26</v>
       </c>
-      <c r="B77" s="104"/>
-      <c r="C77" s="105"/>
-      <c r="D77" s="106"/>
+      <c r="B77" s="88" t="s">
+        <v>119</v>
+      </c>
+      <c r="C77" s="89">
+        <v>11.9</v>
+      </c>
+      <c r="D77" s="90">
+        <v>106.46</v>
+      </c>
       <c r="E77" s="3"/>
       <c r="F77" s="3"/>
       <c r="G77" s="3"/>
@@ -3851,7 +4341,7 @@
       <c r="Q77" s="3"/>
       <c r="R77" s="3"/>
     </row>
-    <row r="78" ht="12.75" customHeight="1">
+    <row r="78" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="3"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -3871,7 +4361,7 @@
       <c r="Q78" s="3"/>
       <c r="R78" s="3"/>
     </row>
-    <row r="79" ht="12.75" customHeight="1">
+    <row r="79" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="6"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -3891,7 +4381,7 @@
       <c r="Q79" s="3"/>
       <c r="R79" s="3"/>
     </row>
-    <row r="80" ht="22.5" customHeight="1">
+    <row r="80" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="3"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -3911,28 +4401,28 @@
       <c r="Q80" s="3"/>
       <c r="R80" s="3"/>
     </row>
-    <row r="81" ht="12.75" customHeight="1">
-      <c r="A81" s="101"/>
-      <c r="B81" s="79" t="s">
+    <row r="81" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="85"/>
+      <c r="B81" s="63" t="s">
         <v>52</v>
       </c>
-      <c r="C81" s="79" t="s">
+      <c r="C81" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="D81" s="79" t="s">
+      <c r="D81" s="63" t="s">
         <v>53</v>
       </c>
-      <c r="E81" s="79" t="s">
+      <c r="E81" s="63" t="s">
         <v>54</v>
       </c>
-      <c r="F81" s="79" t="s">
-        <v>59</v>
-      </c>
-      <c r="G81" s="79" t="s">
-        <v>67</v>
-      </c>
-      <c r="H81" s="79" t="s">
-        <v>68</v>
+      <c r="F81" s="63" t="s">
+        <v>56</v>
+      </c>
+      <c r="G81" s="63" t="s">
+        <v>64</v>
+      </c>
+      <c r="H81" s="63" t="s">
+        <v>65</v>
       </c>
       <c r="I81" s="3"/>
       <c r="J81" s="3"/>
@@ -3945,17 +4435,31 @@
       <c r="Q81" s="3"/>
       <c r="R81" s="3"/>
     </row>
-    <row r="82" ht="12.75" customHeight="1">
-      <c r="A82" s="107" t="s">
+    <row r="82" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="B82" s="108"/>
-      <c r="C82" s="109"/>
-      <c r="D82" s="109"/>
-      <c r="E82" s="109"/>
-      <c r="F82" s="110"/>
-      <c r="G82" s="110"/>
-      <c r="H82" s="110"/>
+      <c r="B82" s="92">
+        <v>181.2</v>
+      </c>
+      <c r="C82" s="93">
+        <v>11.94</v>
+      </c>
+      <c r="D82" s="93">
+        <v>3.99</v>
+      </c>
+      <c r="E82" s="93">
+        <v>5.54</v>
+      </c>
+      <c r="F82" s="94" t="s">
+        <v>116</v>
+      </c>
+      <c r="G82" s="94" t="s">
+        <v>117</v>
+      </c>
+      <c r="H82" s="94" t="s">
+        <v>118</v>
+      </c>
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
@@ -3967,10 +4471,10 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
     </row>
-    <row r="83" ht="12.75" customHeight="1">
+    <row r="83" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="11"/>
-      <c r="B83" s="40"/>
-      <c r="C83" s="40"/>
+      <c r="B83" s="39"/>
+      <c r="C83" s="39"/>
       <c r="D83" s="11"/>
       <c r="E83" s="11"/>
       <c r="F83" s="11"/>
@@ -3987,10 +4491,10 @@
       <c r="Q83" s="11"/>
       <c r="R83" s="11"/>
     </row>
-    <row r="84" ht="12.75" customHeight="1">
+    <row r="84" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="11"/>
-      <c r="B84" s="40"/>
-      <c r="C84" s="40"/>
+      <c r="B84" s="39"/>
+      <c r="C84" s="39"/>
       <c r="D84" s="11"/>
       <c r="E84" s="11"/>
       <c r="F84" s="11"/>
@@ -4007,10 +4511,10 @@
       <c r="Q84" s="11"/>
       <c r="R84" s="11"/>
     </row>
-    <row r="85" ht="11.25" customHeight="1">
+    <row r="85" spans="1:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="11"/>
-      <c r="B85" s="40"/>
-      <c r="C85" s="40"/>
+      <c r="B85" s="39"/>
+      <c r="C85" s="39"/>
       <c r="D85" s="11"/>
       <c r="E85" s="11"/>
       <c r="F85" s="11"/>
@@ -4027,10 +4531,10 @@
       <c r="Q85" s="11"/>
       <c r="R85" s="11"/>
     </row>
-    <row r="86" ht="11.25" customHeight="1">
+    <row r="86" spans="1:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="11"/>
-      <c r="B86" s="40"/>
-      <c r="C86" s="40"/>
+      <c r="B86" s="39"/>
+      <c r="C86" s="39"/>
       <c r="D86" s="11"/>
       <c r="E86" s="11"/>
       <c r="F86" s="11"/>
@@ -4047,13 +4551,15 @@
       <c r="Q86" s="11"/>
       <c r="R86" s="11"/>
     </row>
-    <row r="87" ht="12.75" customHeight="1">
+    <row r="87" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="B87" s="40"/>
-      <c r="C87" s="40"/>
-      <c r="D87" s="42"/>
+        <v>66</v>
+      </c>
+      <c r="B87" s="39"/>
+      <c r="C87" s="39"/>
+      <c r="D87" s="41">
+        <v>181.2</v>
+      </c>
       <c r="E87" s="11"/>
       <c r="F87" s="11"/>
       <c r="G87" s="11"/>
@@ -4069,10 +4575,10 @@
       <c r="Q87" s="11"/>
       <c r="R87" s="11"/>
     </row>
-    <row r="88" ht="12.75" customHeight="1">
+    <row r="88" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="11"/>
-      <c r="B88" s="40"/>
-      <c r="C88" s="40"/>
+      <c r="B88" s="39"/>
+      <c r="C88" s="39"/>
       <c r="D88" s="11"/>
       <c r="E88" s="11"/>
       <c r="F88" s="11"/>
@@ -4089,7 +4595,7 @@
       <c r="Q88" s="11"/>
       <c r="R88" s="11"/>
     </row>
-    <row r="89" ht="12.75" customHeight="1">
+    <row r="89" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -4109,9 +4615,9 @@
       <c r="Q89" s="3"/>
       <c r="R89" s="3"/>
     </row>
-    <row r="90" ht="12.75" customHeight="1">
+    <row r="90" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="31" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -4124,7 +4630,7 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
@@ -4133,7 +4639,7 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
     </row>
-    <row r="91" ht="12.75" customHeight="1">
+    <row r="91" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -4153,9 +4659,9 @@
       <c r="Q91" s="3"/>
       <c r="R91" s="3"/>
     </row>
-    <row r="92" ht="12.75" customHeight="1">
+    <row r="92" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="34" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -4175,10 +4681,21 @@
       <c r="Q92" s="3"/>
       <c r="R92" s="3"/>
     </row>
-    <row r="93" ht="12.75" customHeight="1">
-      <c r="A93" s="35" t="s">
-        <v>73</v>
-      </c>
+    <row r="93" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="155" t="s">
+        <v>70</v>
+      </c>
+      <c r="B93" s="156"/>
+      <c r="C93" s="156"/>
+      <c r="D93" s="156"/>
+      <c r="E93" s="156"/>
+      <c r="F93" s="156"/>
+      <c r="G93" s="156"/>
+      <c r="H93" s="156"/>
+      <c r="I93" s="156"/>
+      <c r="J93" s="156"/>
+      <c r="K93" s="156"/>
+      <c r="L93" s="156"/>
       <c r="M93" s="3"/>
       <c r="N93" s="3"/>
       <c r="O93" s="3"/>
@@ -4186,7 +4703,19 @@
       <c r="Q93" s="3"/>
       <c r="R93" s="3"/>
     </row>
-    <row r="94" ht="12.75" customHeight="1">
+    <row r="94" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="156"/>
+      <c r="B94" s="156"/>
+      <c r="C94" s="156"/>
+      <c r="D94" s="156"/>
+      <c r="E94" s="156"/>
+      <c r="F94" s="156"/>
+      <c r="G94" s="156"/>
+      <c r="H94" s="156"/>
+      <c r="I94" s="156"/>
+      <c r="J94" s="156"/>
+      <c r="K94" s="156"/>
+      <c r="L94" s="156"/>
       <c r="M94" s="3"/>
       <c r="N94" s="3"/>
       <c r="O94" s="3"/>
@@ -4194,7 +4723,7 @@
       <c r="Q94" s="3"/>
       <c r="R94" s="3"/>
     </row>
-    <row r="95" ht="12.75" customHeight="1">
+    <row r="95" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="34"/>
       <c r="B95" s="34"/>
       <c r="C95" s="34"/>
@@ -4214,39 +4743,39 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
     </row>
-    <row r="96" ht="12.75" customHeight="1">
+    <row r="96" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="18"/>
-      <c r="B96" s="111" t="s">
+      <c r="B96" s="95" t="s">
         <v>3</v>
       </c>
-      <c r="C96" s="112" t="s">
+      <c r="C96" s="96" t="s">
         <v>4</v>
       </c>
-      <c r="D96" s="112" t="s">
+      <c r="D96" s="96" t="s">
         <v>45</v>
       </c>
-      <c r="E96" s="112" t="s">
+      <c r="E96" s="96" t="s">
         <v>46</v>
       </c>
-      <c r="F96" s="112" t="s">
+      <c r="F96" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="G96" s="112" t="s">
+      <c r="G96" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="H96" s="112" t="s">
+      <c r="H96" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="I96" s="112" t="s">
+      <c r="I96" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="J96" s="112" t="s">
+      <c r="J96" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="K96" s="112" t="s">
+      <c r="K96" s="96" t="s">
         <v>12</v>
       </c>
-      <c r="L96" s="113" t="s">
+      <c r="L96" s="97" t="s">
         <v>13</v>
       </c>
       <c r="M96" s="3"/>
@@ -4256,21 +4785,43 @@
       <c r="Q96" s="3"/>
       <c r="R96" s="3"/>
     </row>
-    <row r="97" ht="12.75" customHeight="1">
-      <c r="A97" s="114" t="s">
-        <v>74</v>
-      </c>
-      <c r="B97" s="115"/>
-      <c r="C97" s="116"/>
-      <c r="D97" s="116"/>
-      <c r="E97" s="116"/>
-      <c r="F97" s="116"/>
-      <c r="G97" s="116"/>
-      <c r="H97" s="116"/>
-      <c r="I97" s="116"/>
-      <c r="J97" s="116"/>
-      <c r="K97" s="116"/>
-      <c r="L97" s="117"/>
+    <row r="97" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="98" t="s">
+        <v>71</v>
+      </c>
+      <c r="B97" s="99">
+        <v>133.76</v>
+      </c>
+      <c r="C97" s="100">
+        <v>151.84</v>
+      </c>
+      <c r="D97" s="100">
+        <v>24.6</v>
+      </c>
+      <c r="E97" s="100">
+        <v>86.28</v>
+      </c>
+      <c r="F97" s="100">
+        <v>73.959999999999994</v>
+      </c>
+      <c r="G97" s="100">
+        <v>54</v>
+      </c>
+      <c r="H97" s="100">
+        <v>26.01</v>
+      </c>
+      <c r="I97" s="100">
+        <v>22.42</v>
+      </c>
+      <c r="J97" s="100">
+        <v>30.24</v>
+      </c>
+      <c r="K97" s="100">
+        <v>63.12</v>
+      </c>
+      <c r="L97" s="101">
+        <v>17.579999999999998</v>
+      </c>
       <c r="M97" s="3"/>
       <c r="N97" s="3"/>
       <c r="O97" s="3"/>
@@ -4278,21 +4829,43 @@
       <c r="Q97" s="3"/>
       <c r="R97" s="3"/>
     </row>
-    <row r="98" ht="12.75" customHeight="1">
-      <c r="A98" s="118" t="s">
+    <row r="98" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="102" t="s">
         <v>19</v>
       </c>
-      <c r="B98" s="119"/>
-      <c r="C98" s="120"/>
-      <c r="D98" s="120"/>
-      <c r="E98" s="120"/>
-      <c r="F98" s="120"/>
-      <c r="G98" s="120"/>
-      <c r="H98" s="120"/>
-      <c r="I98" s="120"/>
-      <c r="J98" s="120"/>
-      <c r="K98" s="120"/>
-      <c r="L98" s="121"/>
+      <c r="B98" s="103">
+        <v>56.14</v>
+      </c>
+      <c r="C98" s="104">
+        <v>78.599999999999994</v>
+      </c>
+      <c r="D98" s="104">
+        <v>23.27</v>
+      </c>
+      <c r="E98" s="104">
+        <v>82.54</v>
+      </c>
+      <c r="F98" s="104">
+        <v>48.68</v>
+      </c>
+      <c r="G98" s="104">
+        <v>26.54</v>
+      </c>
+      <c r="H98" s="104">
+        <v>23.25</v>
+      </c>
+      <c r="I98" s="104">
+        <v>16.73</v>
+      </c>
+      <c r="J98" s="104">
+        <v>25.48</v>
+      </c>
+      <c r="K98" s="104">
+        <v>48.77</v>
+      </c>
+      <c r="L98" s="105">
+        <v>7.79</v>
+      </c>
       <c r="M98" s="3"/>
       <c r="N98" s="3"/>
       <c r="O98" s="3"/>
@@ -4300,21 +4873,43 @@
       <c r="Q98" s="3"/>
       <c r="R98" s="3"/>
     </row>
-    <row r="99" ht="12.75" customHeight="1">
-      <c r="A99" s="122" t="s">
+    <row r="99" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="106" t="s">
         <v>33</v>
       </c>
-      <c r="B99" s="123"/>
-      <c r="C99" s="124"/>
-      <c r="D99" s="124"/>
-      <c r="E99" s="124"/>
-      <c r="F99" s="124"/>
-      <c r="G99" s="124"/>
-      <c r="H99" s="124"/>
-      <c r="I99" s="124"/>
-      <c r="J99" s="124"/>
-      <c r="K99" s="124"/>
-      <c r="L99" s="125"/>
+      <c r="B99" s="107">
+        <v>357207</v>
+      </c>
+      <c r="C99" s="108">
+        <v>316121</v>
+      </c>
+      <c r="D99" s="108">
+        <v>243000</v>
+      </c>
+      <c r="E99" s="108">
+        <v>213000</v>
+      </c>
+      <c r="F99" s="108">
+        <v>273216</v>
+      </c>
+      <c r="G99" s="108">
+        <v>178960</v>
+      </c>
+      <c r="H99" s="108">
+        <v>207800</v>
+      </c>
+      <c r="I99" s="108">
+        <v>198348</v>
+      </c>
+      <c r="J99" s="108">
+        <v>130985</v>
+      </c>
+      <c r="K99" s="108">
+        <v>100041</v>
+      </c>
+      <c r="L99" s="109">
+        <v>12202</v>
+      </c>
       <c r="M99" s="3"/>
       <c r="N99" s="3"/>
       <c r="O99" s="3"/>
@@ -4322,21 +4917,43 @@
       <c r="Q99" s="3"/>
       <c r="R99" s="3"/>
     </row>
-    <row r="100" ht="12.75" customHeight="1">
-      <c r="A100" s="118" t="s">
+    <row r="100" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="102" t="s">
         <v>20</v>
       </c>
-      <c r="B100" s="119"/>
-      <c r="C100" s="120"/>
-      <c r="D100" s="120"/>
-      <c r="E100" s="120"/>
-      <c r="F100" s="120"/>
-      <c r="G100" s="120"/>
-      <c r="H100" s="120"/>
-      <c r="I100" s="120"/>
-      <c r="J100" s="120"/>
-      <c r="K100" s="120"/>
-      <c r="L100" s="121"/>
+      <c r="B100" s="103">
+        <v>113.81</v>
+      </c>
+      <c r="C100" s="104">
+        <v>208.63</v>
+      </c>
+      <c r="D100" s="104">
+        <v>107.17</v>
+      </c>
+      <c r="E100" s="104">
+        <v>105.23</v>
+      </c>
+      <c r="F100" s="104">
+        <v>95.87</v>
+      </c>
+      <c r="G100" s="104">
+        <v>95.25</v>
+      </c>
+      <c r="H100" s="104">
+        <v>54.36</v>
+      </c>
+      <c r="I100" s="104">
+        <v>59.38</v>
+      </c>
+      <c r="J100" s="104">
+        <v>37.79</v>
+      </c>
+      <c r="K100" s="104">
+        <v>53.2</v>
+      </c>
+      <c r="L100" s="105">
+        <v>7.47</v>
+      </c>
       <c r="M100" s="3"/>
       <c r="N100" s="3"/>
       <c r="O100" s="3"/>
@@ -4344,21 +4961,43 @@
       <c r="Q100" s="3"/>
       <c r="R100" s="3"/>
     </row>
-    <row r="101" ht="12.75" customHeight="1">
-      <c r="A101" s="126" t="s">
-        <v>75</v>
-      </c>
-      <c r="B101" s="127"/>
-      <c r="C101" s="128"/>
-      <c r="D101" s="128"/>
-      <c r="E101" s="128"/>
-      <c r="F101" s="128"/>
-      <c r="G101" s="128"/>
-      <c r="H101" s="128"/>
-      <c r="I101" s="128"/>
-      <c r="J101" s="128"/>
-      <c r="K101" s="128"/>
-      <c r="L101" s="129"/>
+    <row r="101" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="110" t="s">
+        <v>72</v>
+      </c>
+      <c r="B101" s="111">
+        <v>15.71</v>
+      </c>
+      <c r="C101" s="112">
+        <v>31.54</v>
+      </c>
+      <c r="D101" s="112">
+        <v>-7.8</v>
+      </c>
+      <c r="E101" s="112">
+        <v>5.78</v>
+      </c>
+      <c r="F101" s="112">
+        <v>10.050000000000001</v>
+      </c>
+      <c r="G101" s="112">
+        <v>11.36</v>
+      </c>
+      <c r="H101" s="112">
+        <v>2.85</v>
+      </c>
+      <c r="I101" s="112">
+        <v>6.41</v>
+      </c>
+      <c r="J101" s="112">
+        <v>4.08</v>
+      </c>
+      <c r="K101" s="112" t="s">
+        <v>114</v>
+      </c>
+      <c r="L101" s="113">
+        <v>9.93</v>
+      </c>
       <c r="M101" s="3"/>
       <c r="N101" s="3"/>
       <c r="O101" s="3"/>
@@ -4366,21 +5005,43 @@
       <c r="Q101" s="3"/>
       <c r="R101" s="3"/>
     </row>
-    <row r="102" ht="12.75" customHeight="1">
-      <c r="A102" s="130" t="s">
-        <v>76</v>
-      </c>
-      <c r="B102" s="131"/>
-      <c r="C102" s="132"/>
-      <c r="D102" s="132"/>
-      <c r="E102" s="132"/>
-      <c r="F102" s="132"/>
-      <c r="G102" s="132"/>
-      <c r="H102" s="132"/>
-      <c r="I102" s="132"/>
-      <c r="J102" s="132"/>
-      <c r="K102" s="132"/>
-      <c r="L102" s="133"/>
+    <row r="102" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="114" t="s">
+        <v>73</v>
+      </c>
+      <c r="B102" s="115">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="C102" s="116">
+        <v>0.151</v>
+      </c>
+      <c r="D102" s="116">
+        <v>-7.2999999999999995E-2</v>
+      </c>
+      <c r="E102" s="116">
+        <v>5.5E-2</v>
+      </c>
+      <c r="F102" s="116">
+        <v>0.105</v>
+      </c>
+      <c r="G102" s="116">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="H102" s="116">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="I102" s="116">
+        <v>0.108</v>
+      </c>
+      <c r="J102" s="116">
+        <v>0.108</v>
+      </c>
+      <c r="K102" s="116">
+        <v>0.153</v>
+      </c>
+      <c r="L102" s="117">
+        <v>1.329</v>
+      </c>
       <c r="M102" s="3"/>
       <c r="N102" s="3"/>
       <c r="O102" s="3"/>
@@ -4388,21 +5049,43 @@
       <c r="Q102" s="3"/>
       <c r="R102" s="3"/>
     </row>
-    <row r="103" ht="12.75" customHeight="1">
-      <c r="A103" s="134" t="s">
-        <v>77</v>
-      </c>
-      <c r="B103" s="135"/>
-      <c r="C103" s="136"/>
-      <c r="D103" s="136"/>
-      <c r="E103" s="136"/>
-      <c r="F103" s="136"/>
-      <c r="G103" s="136"/>
-      <c r="H103" s="136"/>
-      <c r="I103" s="136"/>
-      <c r="J103" s="136"/>
-      <c r="K103" s="136"/>
-      <c r="L103" s="137"/>
+    <row r="103" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="118" t="s">
+        <v>74</v>
+      </c>
+      <c r="B103" s="119" t="s">
+        <v>110</v>
+      </c>
+      <c r="C103" s="120" t="s">
+        <v>105</v>
+      </c>
+      <c r="D103" s="120" t="s">
+        <v>112</v>
+      </c>
+      <c r="E103" s="120" t="s">
+        <v>109</v>
+      </c>
+      <c r="F103" s="120" t="s">
+        <v>108</v>
+      </c>
+      <c r="G103" s="120" t="s">
+        <v>105</v>
+      </c>
+      <c r="H103" s="120" t="s">
+        <v>111</v>
+      </c>
+      <c r="I103" s="120" t="s">
+        <v>113</v>
+      </c>
+      <c r="J103" s="120" t="s">
+        <v>108</v>
+      </c>
+      <c r="K103" s="120" t="s">
+        <v>96</v>
+      </c>
+      <c r="L103" s="121" t="s">
+        <v>115</v>
+      </c>
       <c r="M103" s="3"/>
       <c r="N103" s="3"/>
       <c r="O103" s="3"/>
@@ -4410,7 +5093,7 @@
       <c r="Q103" s="3"/>
       <c r="R103" s="3"/>
     </row>
-    <row r="104" ht="12.75" customHeight="1">
+    <row r="104" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="3"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -4430,19 +5113,19 @@
       <c r="Q104" s="3"/>
       <c r="R104" s="3"/>
     </row>
-    <row r="105" ht="12.75" customHeight="1">
+    <row r="105" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="3"/>
-      <c r="B105" s="92" t="s">
+      <c r="B105" s="76" t="s">
+        <v>75</v>
+      </c>
+      <c r="C105" s="77" t="s">
+        <v>76</v>
+      </c>
+      <c r="D105" s="77" t="s">
+        <v>77</v>
+      </c>
+      <c r="E105" s="78" t="s">
         <v>78</v>
-      </c>
-      <c r="C105" s="93" t="s">
-        <v>79</v>
-      </c>
-      <c r="D105" s="93" t="s">
-        <v>80</v>
-      </c>
-      <c r="E105" s="94" t="s">
-        <v>81</v>
       </c>
       <c r="F105" s="3"/>
       <c r="G105" s="3"/>
@@ -4458,14 +5141,22 @@
       <c r="Q105" s="3"/>
       <c r="R105" s="3"/>
     </row>
-    <row r="106" ht="12.75" customHeight="1">
-      <c r="A106" s="80" t="s">
-        <v>55</v>
-      </c>
-      <c r="B106" s="138"/>
-      <c r="C106" s="81"/>
-      <c r="D106" s="139"/>
-      <c r="E106" s="81"/>
+    <row r="106" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="B106" s="122">
+        <v>151.84</v>
+      </c>
+      <c r="C106" s="65">
+        <v>31.54</v>
+      </c>
+      <c r="D106" s="123">
+        <v>7.3</v>
+      </c>
+      <c r="E106" s="65">
+        <v>10.15</v>
+      </c>
       <c r="F106" s="3"/>
       <c r="G106" s="3"/>
       <c r="H106" s="3"/>
@@ -4480,14 +5171,22 @@
       <c r="Q106" s="3"/>
       <c r="R106" s="3"/>
     </row>
-    <row r="107" ht="12.75" customHeight="1">
-      <c r="A107" s="86" t="s">
-        <v>56</v>
-      </c>
-      <c r="B107" s="140"/>
-      <c r="C107" s="84"/>
-      <c r="D107" s="91"/>
-      <c r="E107" s="84"/>
+    <row r="107" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="70" t="s">
+        <v>46</v>
+      </c>
+      <c r="B107" s="124">
+        <v>86.28</v>
+      </c>
+      <c r="C107" s="68">
+        <v>5.78</v>
+      </c>
+      <c r="D107" s="75">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="E107" s="68" t="s">
+        <v>30</v>
+      </c>
       <c r="F107" s="3"/>
       <c r="G107" s="3"/>
       <c r="H107" s="3"/>
@@ -4502,14 +5201,22 @@
       <c r="Q107" s="3"/>
       <c r="R107" s="3"/>
     </row>
-    <row r="108" ht="12.75" customHeight="1">
-      <c r="A108" s="86" t="s">
-        <v>57</v>
-      </c>
-      <c r="B108" s="140"/>
-      <c r="C108" s="84"/>
-      <c r="D108" s="91"/>
-      <c r="E108" s="84"/>
+    <row r="108" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="70" t="s">
+        <v>7</v>
+      </c>
+      <c r="B108" s="124">
+        <v>73.959999999999994</v>
+      </c>
+      <c r="C108" s="68">
+        <v>10.050000000000001</v>
+      </c>
+      <c r="D108" s="75">
+        <v>7.99</v>
+      </c>
+      <c r="E108" s="68">
+        <v>7.04</v>
+      </c>
       <c r="F108" s="3"/>
       <c r="G108" s="3"/>
       <c r="H108" s="3"/>
@@ -4524,14 +5231,22 @@
       <c r="Q108" s="3"/>
       <c r="R108" s="3"/>
     </row>
-    <row r="109" ht="12.75" customHeight="1">
-      <c r="A109" s="86" t="s">
-        <v>57</v>
-      </c>
-      <c r="B109" s="140"/>
-      <c r="C109" s="84"/>
-      <c r="D109" s="91"/>
-      <c r="E109" s="84"/>
+    <row r="109" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="70" t="s">
+        <v>8</v>
+      </c>
+      <c r="B109" s="124">
+        <v>54</v>
+      </c>
+      <c r="C109" s="68">
+        <v>11.36</v>
+      </c>
+      <c r="D109" s="75">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E109" s="68">
+        <v>5</v>
+      </c>
       <c r="F109" s="3"/>
       <c r="G109" s="3"/>
       <c r="H109" s="3"/>
@@ -4546,14 +5261,22 @@
       <c r="Q109" s="3"/>
       <c r="R109" s="3"/>
     </row>
-    <row r="110" ht="12.75" customHeight="1">
-      <c r="A110" s="86" t="s">
-        <v>57</v>
-      </c>
-      <c r="B110" s="140"/>
-      <c r="C110" s="84"/>
-      <c r="D110" s="91"/>
-      <c r="E110" s="84"/>
+    <row r="110" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="70" t="s">
+        <v>11</v>
+      </c>
+      <c r="B110" s="124">
+        <v>30.24</v>
+      </c>
+      <c r="C110" s="68">
+        <v>2.85</v>
+      </c>
+      <c r="D110" s="75">
+        <v>3.1</v>
+      </c>
+      <c r="E110" s="68">
+        <v>2.79</v>
+      </c>
       <c r="F110" s="3"/>
       <c r="G110" s="3"/>
       <c r="H110" s="3"/>
@@ -4568,14 +5291,22 @@
       <c r="Q110" s="3"/>
       <c r="R110" s="3"/>
     </row>
-    <row r="111" ht="12.75" customHeight="1">
-      <c r="A111" s="86" t="s">
-        <v>57</v>
-      </c>
-      <c r="B111" s="140"/>
-      <c r="C111" s="84"/>
-      <c r="D111" s="91"/>
-      <c r="E111" s="84"/>
+    <row r="111" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="70" t="s">
+        <v>12</v>
+      </c>
+      <c r="B111" s="124">
+        <v>63.12</v>
+      </c>
+      <c r="C111" s="68">
+        <v>8.15</v>
+      </c>
+      <c r="D111" s="75">
+        <v>6.3</v>
+      </c>
+      <c r="E111" s="68">
+        <v>6.65</v>
+      </c>
       <c r="F111" s="3"/>
       <c r="G111" s="3"/>
       <c r="H111" s="3"/>
@@ -4590,14 +5321,14 @@
       <c r="Q111" s="3"/>
       <c r="R111" s="3"/>
     </row>
-    <row r="112" ht="12.75" customHeight="1">
-      <c r="A112" s="87" t="s">
-        <v>58</v>
-      </c>
-      <c r="B112" s="141"/>
-      <c r="C112" s="88"/>
-      <c r="D112" s="142"/>
-      <c r="E112" s="88"/>
+    <row r="112" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="71" t="s">
+        <v>55</v>
+      </c>
+      <c r="B112" s="125"/>
+      <c r="C112" s="72"/>
+      <c r="D112" s="126"/>
+      <c r="E112" s="72"/>
       <c r="F112" s="3"/>
       <c r="G112" s="3"/>
       <c r="H112" s="3"/>
@@ -4612,7 +5343,7 @@
       <c r="Q112" s="3"/>
       <c r="R112" s="3"/>
     </row>
-    <row r="113" ht="12.75" customHeight="1">
+    <row r="113" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="3"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -4632,12 +5363,12 @@
       <c r="Q113" s="3"/>
       <c r="R113" s="3"/>
     </row>
-    <row r="114" ht="12.75" customHeight="1">
+    <row r="114" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="3"/>
       <c r="B114" s="6"/>
-      <c r="C114" s="40"/>
-      <c r="D114" s="40"/>
-      <c r="E114" s="40"/>
+      <c r="C114" s="39"/>
+      <c r="D114" s="39"/>
+      <c r="E114" s="39"/>
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
       <c r="H114" s="3"/>
@@ -4652,17 +5383,17 @@
       <c r="Q114" s="3"/>
       <c r="R114" s="3"/>
     </row>
-    <row r="115" ht="12.75" customHeight="1">
+    <row r="115" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="3"/>
       <c r="B115" s="4"/>
-      <c r="C115" s="93" t="s">
-        <v>82</v>
-      </c>
-      <c r="D115" s="93" t="s">
-        <v>83</v>
-      </c>
-      <c r="E115" s="143" t="s">
-        <v>84</v>
+      <c r="C115" s="77" t="s">
+        <v>79</v>
+      </c>
+      <c r="D115" s="77" t="s">
+        <v>80</v>
+      </c>
+      <c r="E115" s="127" t="s">
+        <v>81</v>
       </c>
       <c r="F115" s="3"/>
       <c r="G115" s="3"/>
@@ -4678,14 +5409,20 @@
       <c r="Q115" s="3"/>
       <c r="R115" s="3"/>
     </row>
-    <row r="116" ht="12.75" customHeight="1">
+    <row r="116" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="3"/>
-      <c r="B116" s="144" t="s">
-        <v>55</v>
-      </c>
-      <c r="C116" s="145"/>
-      <c r="D116" s="146"/>
-      <c r="E116" s="147"/>
+      <c r="B116" s="128" t="s">
+        <v>4</v>
+      </c>
+      <c r="C116" s="129" t="s">
+        <v>105</v>
+      </c>
+      <c r="D116" s="130" t="s">
+        <v>101</v>
+      </c>
+      <c r="E116" s="131" t="s">
+        <v>100</v>
+      </c>
       <c r="F116" s="3"/>
       <c r="G116" s="3"/>
       <c r="H116" s="3"/>
@@ -4700,14 +5437,20 @@
       <c r="Q116" s="3"/>
       <c r="R116" s="3"/>
     </row>
-    <row r="117" ht="12.75" customHeight="1">
+    <row r="117" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="3"/>
-      <c r="B117" s="148" t="s">
-        <v>56</v>
-      </c>
-      <c r="C117" s="149"/>
-      <c r="D117" s="150"/>
-      <c r="E117" s="151"/>
+      <c r="B117" s="132" t="s">
+        <v>46</v>
+      </c>
+      <c r="C117" s="133" t="s">
+        <v>109</v>
+      </c>
+      <c r="D117" s="134" t="s">
+        <v>102</v>
+      </c>
+      <c r="E117" s="135" t="s">
+        <v>103</v>
+      </c>
       <c r="F117" s="3"/>
       <c r="G117" s="3"/>
       <c r="H117" s="3"/>
@@ -4722,14 +5465,20 @@
       <c r="Q117" s="3"/>
       <c r="R117" s="3"/>
     </row>
-    <row r="118" ht="12.75" customHeight="1">
+    <row r="118" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="3"/>
-      <c r="B118" s="148" t="s">
-        <v>57</v>
-      </c>
-      <c r="C118" s="149"/>
-      <c r="D118" s="150"/>
-      <c r="E118" s="151"/>
+      <c r="B118" s="132" t="s">
+        <v>7</v>
+      </c>
+      <c r="C118" s="133" t="s">
+        <v>108</v>
+      </c>
+      <c r="D118" s="134" t="s">
+        <v>107</v>
+      </c>
+      <c r="E118" s="135" t="s">
+        <v>99</v>
+      </c>
       <c r="F118" s="3"/>
       <c r="G118" s="3"/>
       <c r="H118" s="3"/>
@@ -4744,14 +5493,20 @@
       <c r="Q118" s="3"/>
       <c r="R118" s="3"/>
     </row>
-    <row r="119" ht="12.75" customHeight="1">
+    <row r="119" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="3"/>
-      <c r="B119" s="148" t="s">
-        <v>57</v>
-      </c>
-      <c r="C119" s="149"/>
-      <c r="D119" s="150"/>
-      <c r="E119" s="151"/>
+      <c r="B119" s="132" t="s">
+        <v>8</v>
+      </c>
+      <c r="C119" s="133" t="s">
+        <v>105</v>
+      </c>
+      <c r="D119" s="134" t="s">
+        <v>106</v>
+      </c>
+      <c r="E119" s="135" t="s">
+        <v>95</v>
+      </c>
       <c r="F119" s="3"/>
       <c r="G119" s="3"/>
       <c r="H119" s="3"/>
@@ -4766,14 +5521,20 @@
       <c r="Q119" s="3"/>
       <c r="R119" s="3"/>
     </row>
-    <row r="120" ht="12.75" customHeight="1">
+    <row r="120" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="3"/>
-      <c r="B120" s="148" t="s">
-        <v>57</v>
-      </c>
-      <c r="C120" s="149"/>
-      <c r="D120" s="150"/>
-      <c r="E120" s="151"/>
+      <c r="B120" s="132" t="s">
+        <v>11</v>
+      </c>
+      <c r="C120" s="133" t="s">
+        <v>103</v>
+      </c>
+      <c r="D120" s="134" t="s">
+        <v>104</v>
+      </c>
+      <c r="E120" s="135" t="s">
+        <v>95</v>
+      </c>
       <c r="F120" s="3"/>
       <c r="G120" s="3"/>
       <c r="H120" s="3"/>
@@ -4788,14 +5549,20 @@
       <c r="Q120" s="3"/>
       <c r="R120" s="3"/>
     </row>
-    <row r="121" ht="12.75" customHeight="1">
+    <row r="121" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="3"/>
-      <c r="B121" s="148" t="s">
-        <v>57</v>
-      </c>
-      <c r="C121" s="149"/>
-      <c r="D121" s="150"/>
-      <c r="E121" s="151"/>
+      <c r="B121" s="132" t="s">
+        <v>12</v>
+      </c>
+      <c r="C121" s="133" t="s">
+        <v>96</v>
+      </c>
+      <c r="D121" s="134" t="s">
+        <v>97</v>
+      </c>
+      <c r="E121" s="135" t="s">
+        <v>98</v>
+      </c>
       <c r="F121" s="3"/>
       <c r="G121" s="3"/>
       <c r="H121" s="3"/>
@@ -4810,14 +5577,14 @@
       <c r="Q121" s="3"/>
       <c r="R121" s="3"/>
     </row>
-    <row r="122" ht="12.75" customHeight="1">
+    <row r="122" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="3"/>
-      <c r="B122" s="152" t="s">
-        <v>58</v>
-      </c>
-      <c r="C122" s="153"/>
-      <c r="D122" s="154"/>
-      <c r="E122" s="155"/>
+      <c r="B122" s="136" t="s">
+        <v>55</v>
+      </c>
+      <c r="C122" s="137"/>
+      <c r="D122" s="138"/>
+      <c r="E122" s="139"/>
       <c r="F122" s="3"/>
       <c r="G122" s="3"/>
       <c r="H122" s="3"/>
@@ -4832,12 +5599,12 @@
       <c r="Q122" s="3"/>
       <c r="R122" s="3"/>
     </row>
-    <row r="123" ht="12.75" customHeight="1">
+    <row r="123" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="3"/>
       <c r="B123" s="2"/>
-      <c r="C123" s="156"/>
-      <c r="D123" s="157"/>
-      <c r="E123" s="157"/>
+      <c r="C123" s="140"/>
+      <c r="D123" s="141"/>
+      <c r="E123" s="141"/>
       <c r="F123" s="3"/>
       <c r="G123" s="3"/>
       <c r="H123" s="3"/>
@@ -4852,14 +5619,20 @@
       <c r="Q123" s="3"/>
       <c r="R123" s="3"/>
     </row>
-    <row r="124" ht="12.75" customHeight="1">
-      <c r="A124" s="100" t="s">
-        <v>85</v>
+    <row r="124" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="84" t="s">
+        <v>82</v>
       </c>
       <c r="B124" s="2"/>
-      <c r="C124" s="158"/>
-      <c r="D124" s="158"/>
-      <c r="E124" s="158"/>
+      <c r="C124" s="142" t="s">
+        <v>93</v>
+      </c>
+      <c r="D124" s="142" t="s">
+        <v>94</v>
+      </c>
+      <c r="E124" s="142" t="s">
+        <v>95</v>
+      </c>
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
       <c r="H124" s="3"/>
@@ -4874,7 +5647,7 @@
       <c r="Q124" s="3"/>
       <c r="R124" s="3"/>
     </row>
-    <row r="125" ht="12.75" customHeight="1">
+    <row r="125" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="3"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -4894,9 +5667,9 @@
       <c r="Q125" s="3"/>
       <c r="R125" s="3"/>
     </row>
-    <row r="126" ht="12.75" customHeight="1">
+    <row r="126" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="34" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -4916,9 +5689,9 @@
       <c r="Q126" s="3"/>
       <c r="R126" s="3"/>
     </row>
-    <row r="127" ht="12.75" customHeight="1">
+    <row r="127" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="34" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -4938,7 +5711,7 @@
       <c r="Q127" s="3"/>
       <c r="R127" s="3"/>
     </row>
-    <row r="128" ht="12.75" customHeight="1">
+    <row r="128" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="3"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -4958,9 +5731,9 @@
       <c r="Q128" s="3"/>
       <c r="R128" s="3"/>
     </row>
-    <row r="129" ht="12.75" customHeight="1">
+    <row r="129" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -4980,7 +5753,7 @@
       <c r="Q129" s="3"/>
       <c r="R129" s="3"/>
     </row>
-    <row r="130" ht="12.75" customHeight="1">
+    <row r="130" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="3"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -5000,19 +5773,19 @@
       <c r="Q130" s="3"/>
       <c r="R130" s="3"/>
     </row>
-    <row r="131" ht="12.75" customHeight="1">
+    <row r="131" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="3"/>
-      <c r="B131" s="159" t="s">
-        <v>89</v>
-      </c>
-      <c r="C131" s="160" t="s">
-        <v>79</v>
-      </c>
-      <c r="D131" s="161" t="s">
-        <v>80</v>
-      </c>
-      <c r="E131" s="162" t="s">
-        <v>81</v>
+      <c r="B131" s="143" t="s">
+        <v>86</v>
+      </c>
+      <c r="C131" s="144" t="s">
+        <v>76</v>
+      </c>
+      <c r="D131" s="145" t="s">
+        <v>77</v>
+      </c>
+      <c r="E131" s="146" t="s">
+        <v>78</v>
       </c>
       <c r="F131" s="3"/>
       <c r="G131" s="3"/>
@@ -5028,19 +5801,19 @@
       <c r="Q131" s="3"/>
       <c r="R131" s="3"/>
     </row>
-    <row r="132" ht="12.75" customHeight="1">
+    <row r="132" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="11"/>
-      <c r="B132" s="163" t="s">
+      <c r="B132" s="147" t="s">
         <v>3</v>
       </c>
-      <c r="C132" s="164">
+      <c r="C132" s="148">
         <v>15.71</v>
       </c>
-      <c r="D132" s="164">
+      <c r="D132" s="148">
         <v>13.95</v>
       </c>
-      <c r="E132" s="165">
-        <v>10.332</v>
+      <c r="E132" s="149">
+        <v>10.332000000000001</v>
       </c>
       <c r="F132" s="3"/>
       <c r="G132" s="3"/>
@@ -5056,12 +5829,12 @@
       <c r="Q132" s="3"/>
       <c r="R132" s="3"/>
     </row>
-    <row r="133" ht="12.75" customHeight="1">
+    <row r="133" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="11"/>
-      <c r="B133" s="90"/>
-      <c r="C133" s="91"/>
-      <c r="D133" s="91"/>
-      <c r="E133" s="91"/>
+      <c r="B133" s="74"/>
+      <c r="C133" s="75"/>
+      <c r="D133" s="75"/>
+      <c r="E133" s="75"/>
       <c r="F133" s="11"/>
       <c r="G133" s="3"/>
       <c r="H133" s="11"/>
@@ -5076,19 +5849,19 @@
       <c r="Q133" s="3"/>
       <c r="R133" s="3"/>
     </row>
-    <row r="134" ht="12.75" customHeight="1">
-      <c r="A134" s="166" t="s">
+    <row r="134" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A134" s="150" t="s">
+        <v>87</v>
+      </c>
+      <c r="B134" s="74"/>
+      <c r="C134" s="150" t="s">
+        <v>88</v>
+      </c>
+      <c r="D134" s="150" t="s">
+        <v>89</v>
+      </c>
+      <c r="E134" s="150" t="s">
         <v>90</v>
-      </c>
-      <c r="B134" s="90"/>
-      <c r="C134" s="166" t="s">
-        <v>91</v>
-      </c>
-      <c r="D134" s="166" t="s">
-        <v>92</v>
-      </c>
-      <c r="E134" s="166" t="s">
-        <v>93</v>
       </c>
       <c r="F134" s="11"/>
       <c r="G134" s="3"/>
@@ -5104,16 +5877,22 @@
       <c r="Q134" s="3"/>
       <c r="R134" s="3"/>
     </row>
-    <row r="135" ht="12.75" customHeight="1">
-      <c r="A135" s="167">
+    <row r="135" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A135" s="151">
         <v>158.59</v>
       </c>
-      <c r="B135" s="90" t="s">
-        <v>94</v>
-      </c>
-      <c r="C135" s="168"/>
-      <c r="D135" s="169"/>
-      <c r="E135" s="170"/>
+      <c r="B135" s="74" t="s">
+        <v>91</v>
+      </c>
+      <c r="C135" s="152">
+        <v>118.64</v>
+      </c>
+      <c r="D135" s="153">
+        <v>155.49</v>
+      </c>
+      <c r="E135" s="154">
+        <v>111.59</v>
+      </c>
       <c r="F135" s="11"/>
       <c r="G135" s="11"/>
       <c r="H135" s="11"/>
@@ -5128,7 +5907,7 @@
       <c r="Q135" s="3"/>
       <c r="R135" s="3"/>
     </row>
-    <row r="136" ht="12.75" customHeight="1">
+    <row r="136" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="3"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -5154,13 +5933,24 @@
     <mergeCell ref="A52:L53"/>
     <mergeCell ref="A93:L94"/>
   </mergeCells>
-  <printOptions/>
-  <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape"/>
   <rowBreaks count="2" manualBreakCount="2">
     <brk id="38" man="1"/>
     <brk id="88" man="1"/>
   </rowBreaks>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF2F2283-DE20-4B5F-844C-3054C7FE1B19}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>